--- a/HW04/Q1/Q1_B_ViralPanchal.xlsx
+++ b/HW04/Q1/Q1_B_ViralPanchal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My files\Study\ME 635\HW04\Q1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E77983-F537-4811-86CE-DF9C05BBF30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1335FF2-CA70-4E19-A499-FA23FED96063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BE722FDE-A411-4CBC-8BB7-50E2D409DFC0}"/>
   </bookViews>
@@ -280,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,21 +295,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -319,6 +312,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3563,8 +3559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5190E841-66DD-4E1C-8A12-F3D2DD0484BC}">
   <dimension ref="A1:O213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R47" sqref="R47"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3581,14 +3577,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -3600,14 +3596,14 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -3774,10 +3770,10 @@
         <v>6.5348427415273466E-25</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -3806,10 +3802,10 @@
         <v>1.0655053534820391E-19</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="I9" s="1"/>
@@ -3840,10 +3836,10 @@
         <v>1.2770038525517298E-19</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="1">
         <v>1</v>
       </c>
       <c r="I10" s="1"/>
@@ -3874,10 +3870,10 @@
         <v>3.8910837466911029E-21</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="1">
         <v>1</v>
       </c>
       <c r="I11" s="1"/>
@@ -3908,10 +3904,10 @@
         <v>3.8449959493977405E-20</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="1">
         <v>2.737992337230153E-10</v>
       </c>
       <c r="I12" s="1"/>
@@ -3942,10 +3938,10 @@
         <v>1.5743884887664841E-19</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="9">
         <v>101</v>
       </c>
       <c r="I13" s="1"/>
@@ -4038,20 +4034,20 @@
         <v>1.0797881595107375E-19</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="1"/>
@@ -4078,22 +4074,22 @@
         <v>4.8313148048369236E-21</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="1">
         <v>2</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="1">
         <v>0.58736402006659427</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="1">
         <v>0.29368201003329714</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="1">
         <v>3.9175350180787948E+18</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="1">
         <v>0</v>
       </c>
       <c r="M17" s="1"/>
@@ -4120,20 +4116,20 @@
         <v>5.91319955308855E-20</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="1">
         <v>98</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="1">
         <v>7.3466699979564146E-18</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="1">
         <v>7.4966020387310351E-20</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -4158,18 +4154,18 @@
         <v>3.5450660657709453E-20</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="9">
         <v>100</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="9">
         <v>0.58736402006659427</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -4224,29 +4220,29 @@
         <v>1.6304913910834585E-19</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="9" t="s">
+      <c r="O21" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4270,31 +4266,31 @@
         <v>2.7859404324469052E-20</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="1">
         <v>2.548085700770919E-11</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="1">
         <v>7.1147413373982075E-11</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="1">
         <v>0.35814172011806822</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="1">
         <v>0.72100753625235803</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="1">
         <v>-1.1570886930541953E-10</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="1">
         <v>1.6667058332083791E-10</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="1">
         <v>-1.1570886930541953E-10</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="1">
         <v>1.6667058332083791E-10</v>
       </c>
     </row>
@@ -4318,31 +4314,31 @@
         <v>6.1765089100972311E-20</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="11">
         <v>0.24999999972548181</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="1">
         <v>1.5394454846344876E-9</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="1">
         <v>162396136.93422836</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="1">
         <v>0</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="1">
         <v>0.24999999667050235</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="1">
         <v>0.25000000278046125</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="1">
         <v>0.24999999667050235</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="1">
         <v>0.25000000278046125</v>
       </c>
     </row>
@@ -4366,31 +4362,31 @@
         <v>9.6798874042713976E-20</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="12">
         <v>1.0000000233927803E-2</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="9">
         <v>1.3285094266989047E-9</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="9">
         <v>7527233.1779955197</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="9">
         <v>0</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="9">
         <v>9.999997597544082E-3</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="9">
         <v>1.0000002870311523E-2</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="9">
         <v>9.999997597544082E-3</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="9">
         <v>1.0000002870311523E-2</v>
       </c>
     </row>
@@ -4604,10 +4600,10 @@
         <v>2.5558574641690232E-19</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="8">
         <f>SQRT(H30/H29)</f>
         <v>2.7090327262611228E-10</v>
       </c>
@@ -6180,1124 +6176,1124 @@
     </row>
     <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="7">
+      <c r="A113">
         <v>1</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113">
         <v>2.548085700770919E-11</v>
       </c>
-      <c r="C113" s="7">
+      <c r="C113">
         <v>-2.548085700770919E-11</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="7">
+      <c r="A114">
         <v>2</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114">
         <v>2.6000016917499926E-3</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C114">
         <v>3.0825000755033138E-10</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="7">
+      <c r="A115">
         <v>3</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115">
         <v>5.2000133582693646E-3</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C115">
         <v>-3.582693646961288E-10</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="7">
+      <c r="A116">
         <v>4</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116">
         <v>7.800045026289241E-3</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C116">
         <v>-2.6289240749599596E-11</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="7">
+      <c r="A117">
         <v>5</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117">
         <v>1.0400106699060063E-2</v>
       </c>
-      <c r="C117" s="7">
+      <c r="C117">
         <v>3.0093993790003548E-10</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="7">
+      <c r="A118">
         <v>6</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118">
         <v>1.3000208382832763E-2</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C118">
         <v>-3.8283276375394859E-10</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="7">
+      <c r="A119">
         <v>7</v>
       </c>
-      <c r="B119" s="7">
+      <c r="B119">
         <v>1.560036008785941E-2</v>
       </c>
-      <c r="C119" s="7">
+      <c r="C119">
         <v>-8.7859408984258813E-11</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="7">
+      <c r="A120">
         <v>8</v>
       </c>
-      <c r="B120" s="7">
+      <c r="B120">
         <v>1.8200571829394246E-2</v>
       </c>
-      <c r="C120" s="7">
+      <c r="C120">
         <v>1.7060575521754551E-10</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="7">
+      <c r="A121">
         <v>9</v>
       </c>
-      <c r="B121" s="7">
+      <c r="B121">
         <v>2.0800853628695212E-2</v>
       </c>
-      <c r="C121" s="7">
+      <c r="C121">
         <v>3.7130478899860542E-10</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="7">
+      <c r="A122">
         <v>10</v>
       </c>
-      <c r="B122" s="7">
+      <c r="B122">
         <v>2.3401215514026068E-2</v>
       </c>
-      <c r="C122" s="7">
+      <c r="C122">
         <v>-5.1402606823791608E-10</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="7">
+      <c r="A123">
         <v>11</v>
       </c>
-      <c r="B123" s="7">
+      <c r="B123">
         <v>2.6001667521659267E-2</v>
       </c>
-      <c r="C123" s="7">
+      <c r="C123">
         <v>4.7834073160779589E-10</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="7">
+      <c r="A124">
         <v>12</v>
       </c>
-      <c r="B124" s="7">
+      <c r="B124">
         <v>2.8602219696879552E-2</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C124">
         <v>3.0312044888014533E-10</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="7">
+      <c r="A125">
         <v>13</v>
       </c>
-      <c r="B125" s="7">
+      <c r="B125">
         <v>3.1202882094988518E-2</v>
       </c>
-      <c r="C125" s="7">
+      <c r="C125">
         <v>-9.4988517052030375E-11</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="7">
+      <c r="A126">
         <v>14</v>
       </c>
-      <c r="B126" s="7">
+      <c r="B126">
         <v>3.3803664782310144E-2</v>
       </c>
-      <c r="C126" s="7">
+      <c r="C126">
         <v>2.1768985225545379E-10</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="7">
+      <c r="A127">
         <v>15</v>
       </c>
-      <c r="B127" s="7">
+      <c r="B127">
         <v>3.6404577837197395E-2</v>
       </c>
-      <c r="C127" s="7">
+      <c r="C127">
         <v>1.6280260473067187E-10</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="7">
+      <c r="A128">
         <v>16</v>
       </c>
-      <c r="B128" s="7">
+      <c r="B128">
         <v>3.9005631351040161E-2</v>
       </c>
-      <c r="C128" s="7">
+      <c r="C128">
         <v>-3.5104016221643164E-10</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="7">
+      <c r="A129">
         <v>17</v>
       </c>
-      <c r="B129" s="7">
+      <c r="B129">
         <v>4.1606835429274298E-2</v>
       </c>
-      <c r="C129" s="7">
+      <c r="C129">
         <v>-4.2927429666494987E-10</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="7">
+      <c r="A130">
         <v>18</v>
       </c>
-      <c r="B130" s="7">
+      <c r="B130">
         <v>4.4208200192392223E-2</v>
       </c>
-      <c r="C130" s="7">
+      <c r="C130">
         <v>-1.9239222021072422E-10</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="7">
+      <c r="A131">
         <v>19</v>
       </c>
-      <c r="B131" s="7">
+      <c r="B131">
         <v>4.6809735776955026E-2</v>
       </c>
-      <c r="C131" s="7">
+      <c r="C131">
         <v>2.2304497138136981E-10</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="7">
+      <c r="A132">
         <v>20</v>
       </c>
-      <c r="B132" s="7">
+      <c r="B132">
         <v>4.9411452336606029E-2</v>
       </c>
-      <c r="C132" s="7">
+      <c r="C132">
         <v>-3.3660602777318971E-10</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="7">
+      <c r="A133">
         <v>21</v>
       </c>
-      <c r="B133" s="7">
+      <c r="B133">
         <v>5.2013360043086251E-2</v>
       </c>
-      <c r="C133" s="7">
+      <c r="C133">
         <v>-4.3086249845725177E-11</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="7">
+      <c r="A134">
         <v>22</v>
       </c>
-      <c r="B134" s="7">
+      <c r="B134">
         <v>5.4615469087251525E-2</v>
       </c>
-      <c r="C134" s="7">
+      <c r="C134">
         <v>-8.7251525449083545E-11</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="7">
+      <c r="A135">
         <v>23</v>
       </c>
-      <c r="B135" s="7">
+      <c r="B135">
         <v>5.7217789680091627E-2</v>
       </c>
-      <c r="C135" s="7">
+      <c r="C135">
         <v>3.1990837062734201E-10</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="7">
+      <c r="A136">
         <v>24</v>
       </c>
-      <c r="B136" s="7">
+      <c r="B136">
         <v>5.982033205375141E-2</v>
       </c>
-      <c r="C136" s="7">
+      <c r="C136">
         <v>-5.3751413042757434E-11</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="7">
+      <c r="A137">
         <v>25</v>
       </c>
-      <c r="B137" s="7">
+      <c r="B137">
         <v>6.2423106462553939E-2</v>
       </c>
-      <c r="C137" s="7">
+      <c r="C137">
         <v>-4.6255393959526714E-10</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="7">
+      <c r="A138">
         <v>26</v>
       </c>
-      <c r="B138" s="7">
+      <c r="B138">
         <v>6.5026123184026036E-2</v>
       </c>
-      <c r="C138" s="7">
+      <c r="C138">
         <v>-1.8402603052525279E-10</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="7">
+      <c r="A139">
         <v>27</v>
       </c>
-      <c r="B139" s="7">
+      <c r="B139">
         <v>6.762939251992596E-2</v>
       </c>
-      <c r="C139" s="7">
+      <c r="C139">
         <v>4.8007403607996935E-10</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="7">
+      <c r="A140">
         <v>28</v>
       </c>
-      <c r="B140" s="7">
+      <c r="B140">
         <v>7.0232924797273638E-2</v>
       </c>
-      <c r="C140" s="7">
+      <c r="C140">
         <v>2.0272636347407058E-10</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="7">
+      <c r="A141">
         <v>29</v>
       </c>
-      <c r="B141" s="7">
+      <c r="B141">
         <v>7.2836730369383332E-2</v>
       </c>
-      <c r="C141" s="7">
+      <c r="C141">
         <v>-3.6938332947933361E-10</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="7">
+      <c r="A142">
         <v>30</v>
       </c>
-      <c r="B142" s="7">
+      <c r="B142">
         <v>7.5440819616899052E-2</v>
       </c>
-      <c r="C142" s="7">
+      <c r="C142">
         <v>3.8310095373805808E-10</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="7">
+      <c r="A143">
         <v>31</v>
       </c>
-      <c r="B143" s="7">
+      <c r="B143">
         <v>7.804520294883259E-2</v>
       </c>
-      <c r="C143" s="7">
+      <c r="C143">
         <v>5.1167403647411902E-11</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="7">
+      <c r="A144">
         <v>32</v>
       </c>
-      <c r="B144" s="7">
+      <c r="B144">
         <v>8.0649890803604365E-2</v>
       </c>
-      <c r="C144" s="7">
+      <c r="C144">
         <v>1.9639563586526521E-10</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="7">
+      <c r="A145">
         <v>33</v>
       </c>
-      <c r="B145" s="7">
+      <c r="B145">
         <v>8.3254893650087383E-2</v>
       </c>
-      <c r="C145" s="7">
+      <c r="C145">
         <v>3.4991261277372843E-10</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="7">
+      <c r="A146">
         <v>34</v>
       </c>
-      <c r="B146" s="7">
+      <c r="B146">
         <v>8.5860221988654062E-2</v>
       </c>
-      <c r="C146" s="7">
+      <c r="C146">
         <v>1.1345938077944595E-11</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="7">
+      <c r="A147">
         <v>35</v>
       </c>
-      <c r="B147" s="7">
+      <c r="B147">
         <v>8.8465886352226311E-2</v>
       </c>
-      <c r="C147" s="7">
+      <c r="C147">
         <v>-3.5222631755704725E-10</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="7">
+      <c r="A148">
         <v>36</v>
       </c>
-      <c r="B148" s="7">
+      <c r="B148">
         <v>9.1071897307328814E-2</v>
       </c>
-      <c r="C148" s="7">
+      <c r="C148">
         <v>-3.0732881517447908E-10</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="7">
+      <c r="A149">
         <v>37</v>
       </c>
-      <c r="B149" s="7">
+      <c r="B149">
         <v>9.3678265455145709E-2</v>
       </c>
-      <c r="C149" s="7">
+      <c r="C149">
         <v>-4.5514571278548743E-10</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="7">
+      <c r="A150">
         <v>38</v>
       </c>
-      <c r="B150" s="7">
+      <c r="B150">
         <v>9.6285001432580689E-2</v>
       </c>
-      <c r="C150" s="7">
+      <c r="C150">
         <v>-4.3258069348794947E-10</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="7">
+      <c r="A151">
         <v>39</v>
       </c>
-      <c r="B151" s="7">
+      <c r="B151">
         <v>9.88921159133207E-2</v>
       </c>
-      <c r="C151" s="7">
+      <c r="C151">
         <v>8.6679302624403931E-11</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="7">
+      <c r="A152">
         <v>40</v>
       </c>
-      <c r="B152" s="7">
+      <c r="B152">
         <v>0.10149961960890337</v>
       </c>
-      <c r="C152" s="7">
+      <c r="C152">
         <v>3.9109662730574257E-10</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="7">
+      <c r="A153">
         <v>41</v>
       </c>
-      <c r="B153" s="7">
+      <c r="B153">
         <v>0.10410752326978813</v>
       </c>
-      <c r="C153" s="7">
+      <c r="C153">
         <v>-2.6978813627565046E-10</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="7">
+      <c r="A154">
         <v>42</v>
       </c>
-      <c r="B154" s="7">
+      <c r="B154">
         <v>0.10671583768643123</v>
       </c>
-      <c r="C154" s="7">
+      <c r="C154">
         <v>3.1356876817323354E-10</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="7">
+      <c r="A155">
         <v>43</v>
       </c>
-      <c r="B155" s="7">
+      <c r="B155">
         <v>0.1093245736903649</v>
       </c>
-      <c r="C155" s="7">
+      <c r="C155">
         <v>3.0963509534132072E-10</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="7">
+      <c r="A156">
         <v>44</v>
       </c>
-      <c r="B156" s="7">
+      <c r="B156">
         <v>0.1119337421552804</v>
       </c>
-      <c r="C156" s="7">
+      <c r="C156">
         <v>-1.5528039964962659E-10</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="7">
+      <c r="A157">
         <v>45</v>
       </c>
-      <c r="B157" s="7">
+      <c r="B157">
         <v>0.11454335399811551</v>
       </c>
-      <c r="C157" s="7">
+      <c r="C157">
         <v>1.8844925619987407E-12</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="7">
+      <c r="A158">
         <v>46</v>
       </c>
-      <c r="B158" s="7">
+      <c r="B158">
         <v>0.11715342018014609</v>
       </c>
-      <c r="C158" s="7">
+      <c r="C158">
         <v>-1.8014609248773183E-10</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="7">
+      <c r="A159">
         <v>47</v>
       </c>
-      <c r="B159" s="7">
+      <c r="B159">
         <v>0.11976395170808235</v>
       </c>
-      <c r="C159" s="7">
+      <c r="C159">
         <v>2.9191765671399139E-10</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="7">
+      <c r="A160">
         <v>48</v>
       </c>
-      <c r="B160" s="7">
+      <c r="B160">
         <v>0.12237495963516946</v>
       </c>
-      <c r="C160" s="7">
+      <c r="C160">
         <v>3.6483054077773858E-10</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="7">
+      <c r="A161">
         <v>49</v>
       </c>
-      <c r="B161" s="7">
+      <c r="B161">
         <v>0.12498645506229292</v>
       </c>
-      <c r="C161" s="7">
+      <c r="C161">
         <v>-6.229292082160498E-11</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="7">
+      <c r="A162">
         <v>50</v>
       </c>
-      <c r="B162" s="7">
+      <c r="B162">
         <v>0.12759844913908866</v>
       </c>
-      <c r="C162" s="7">
+      <c r="C162">
         <v>-1.3908865725831276E-10</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="7">
+      <c r="A163">
         <v>51</v>
       </c>
-      <c r="B163" s="7">
+      <c r="B163">
         <v>0.13021095306505792</v>
       </c>
-      <c r="C163" s="7">
+      <c r="C163">
         <v>-6.5057931264433932E-11</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="7">
+      <c r="A164">
         <v>52</v>
       </c>
-      <c r="B164" s="7">
+      <c r="B164">
         <v>0.13282397809068733</v>
       </c>
-      <c r="C164" s="7">
+      <c r="C164">
         <v>-9.0687318765603209E-11</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="7">
+      <c r="A165">
         <v>53</v>
       </c>
-      <c r="B165" s="7">
+      <c r="B165">
         <v>0.13543753551857396</v>
       </c>
-      <c r="C165" s="7">
+      <c r="C165">
         <v>4.8142603792378225E-10</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="7">
+      <c r="A166">
         <v>54</v>
       </c>
-      <c r="B166" s="7">
+      <c r="B166">
         <v>0.13805163670455542</v>
       </c>
-      <c r="C166" s="7">
+      <c r="C166">
         <v>2.9544458546304497E-10</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="7">
+      <c r="A167">
         <v>55</v>
       </c>
-      <c r="B167" s="7">
+      <c r="B167">
         <v>0.14066629305884576</v>
       </c>
-      <c r="C167" s="7">
+      <c r="C167">
         <v>-5.8845761596870716E-11</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="7">
+      <c r="A168">
         <v>56</v>
       </c>
-      <c r="B168" s="7">
+      <c r="B168">
         <v>0.14328151604717615</v>
       </c>
-      <c r="C168" s="7">
+      <c r="C168">
         <v>-4.7176151873884464E-11</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="7">
+      <c r="A169">
         <v>57</v>
       </c>
-      <c r="B169" s="7">
+      <c r="B169">
         <v>0.14589731719194177</v>
       </c>
-      <c r="C169" s="7">
+      <c r="C169">
         <v>-1.9194176803516427E-10</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="7">
+      <c r="A170">
         <v>58</v>
       </c>
-      <c r="B170" s="7">
+      <c r="B170">
         <v>0.14851370807335385</v>
       </c>
-      <c r="C170" s="7">
+      <c r="C170">
         <v>-7.335385077134049E-11</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="7">
+      <c r="A171">
         <v>59</v>
       </c>
-      <c r="B171" s="7">
+      <c r="B171">
         <v>0.15113070033059778</v>
       </c>
-      <c r="C171" s="7">
+      <c r="C171">
         <v>-3.3059777138078061E-10</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="7">
+      <c r="A172">
         <v>60</v>
       </c>
-      <c r="B172" s="7">
+      <c r="B172">
         <v>0.15374830566299713</v>
       </c>
-      <c r="C172" s="7">
+      <c r="C172">
         <v>3.3700287005444807E-10</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="7">
+      <c r="A173">
         <v>61</v>
       </c>
-      <c r="B173" s="7">
+      <c r="B173">
         <v>0.15636653583118335</v>
       </c>
-      <c r="C173" s="7">
+      <c r="C173">
         <v>1.6881665509949073E-10</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="7">
+      <c r="A174">
         <v>62</v>
       </c>
-      <c r="B174" s="7">
+      <c r="B174">
         <v>0.15898540265827205</v>
       </c>
-      <c r="C174" s="7">
+      <c r="C174">
         <v>3.4172795149167712E-10</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="7">
+      <c r="A175">
         <v>63</v>
       </c>
-      <c r="B175" s="7">
+      <c r="B175">
         <v>0.16160491803104532</v>
       </c>
-      <c r="C175" s="7">
+      <c r="C175">
         <v>-3.1045332971046946E-11</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="7">
+      <c r="A176">
         <v>64</v>
       </c>
-      <c r="B176" s="7">
+      <c r="B176">
         <v>0.16422509390114029</v>
       </c>
-      <c r="C176" s="7">
+      <c r="C176">
         <v>9.8859698205444602E-11</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="7">
+      <c r="A177">
         <v>65</v>
       </c>
-      <c r="B177" s="7">
+      <c r="B177">
         <v>0.16684594228624439</v>
       </c>
-      <c r="C177" s="7">
+      <c r="C177">
         <v>-2.8624438930258123E-10</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="7">
+      <c r="A178">
         <v>66</v>
       </c>
-      <c r="B178" s="7">
+      <c r="B178">
         <v>0.16946747527129707</v>
       </c>
-      <c r="C178" s="7">
+      <c r="C178">
         <v>-2.7129706814399412E-10</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="7">
+      <c r="A179">
         <v>67</v>
       </c>
-      <c r="B179" s="7">
+      <c r="B179">
         <v>0.17208970500969845</v>
       </c>
-      <c r="C179" s="7">
+      <c r="C179">
         <v>-9.6984364983399018E-12</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="7">
+      <c r="A180">
         <v>68</v>
       </c>
-      <c r="B180" s="7">
+      <c r="B180">
         <v>0.17471264372452447</v>
       </c>
-      <c r="C180" s="7">
+      <c r="C180">
         <v>2.7547553127504898E-10</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="7">
+      <c r="A181">
         <v>69</v>
       </c>
-      <c r="B181" s="7">
+      <c r="B181">
         <v>0.17733630370974934</v>
       </c>
-      <c r="C181" s="7">
+      <c r="C181">
         <v>2.9025065684251672E-10</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="7">
+      <c r="A182">
         <v>70</v>
       </c>
-      <c r="B182" s="7">
+      <c r="B182">
         <v>0.17996069733147491</v>
       </c>
-      <c r="C182" s="7">
+      <c r="C182">
         <v>-3.3147490308138572E-10</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="7">
+      <c r="A183">
         <v>71</v>
       </c>
-      <c r="B183" s="7">
+      <c r="B183">
         <v>0.18258583702916728</v>
       </c>
-      <c r="C183" s="7">
+      <c r="C183">
         <v>-2.9167279702591031E-11</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="7">
+      <c r="A184">
         <v>72</v>
       </c>
-      <c r="B184" s="7">
+      <c r="B184">
         <v>0.1852117353169008</v>
       </c>
-      <c r="C184" s="7">
+      <c r="C184">
         <v>-3.1690081114810198E-10</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="7">
+      <c r="A185">
         <v>73</v>
       </c>
-      <c r="B185" s="7">
+      <c r="B185">
         <v>0.18783840478460942</v>
       </c>
-      <c r="C185" s="7">
+      <c r="C185">
         <v>2.1539059424924289E-10</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="7">
+      <c r="A186">
         <v>74</v>
       </c>
-      <c r="B186" s="7">
+      <c r="B186">
         <v>0.19046585809934574</v>
       </c>
-      <c r="C186" s="7">
+      <c r="C186">
         <v>-9.9345753845625495E-11</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="7">
+      <c r="A187">
         <v>75</v>
       </c>
-      <c r="B187" s="7">
+      <c r="B187">
         <v>0.19309410800654775</v>
       </c>
-      <c r="C187" s="7">
+      <c r="C187">
         <v>-6.5477623323317857E-12</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="7">
+      <c r="A188">
         <v>76</v>
       </c>
-      <c r="B188" s="7">
+      <c r="B188">
         <v>0.19572316733131329</v>
       </c>
-      <c r="C188" s="7">
+      <c r="C188">
         <v>-3.3131328236457591E-10</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="7">
+      <c r="A189">
         <v>77</v>
       </c>
-      <c r="B189" s="7">
+      <c r="B189">
         <v>0.19835304897968262</v>
       </c>
-      <c r="C189" s="7">
+      <c r="C189">
         <v>2.0317386661972137E-11</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="7">
+      <c r="A190">
         <v>78</v>
       </c>
-      <c r="B190" s="7">
+      <c r="B190">
         <v>0.20098376593992917</v>
       </c>
-      <c r="C190" s="7">
+      <c r="C190">
         <v>6.0070837193393345E-11</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="7">
+      <c r="A191">
         <v>79</v>
       </c>
-      <c r="B191" s="7">
+      <c r="B191">
         <v>0.20361533128385811</v>
       </c>
-      <c r="C191" s="7">
+      <c r="C191">
         <v>-2.8385810368902753E-10</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="7">
+      <c r="A192">
         <v>80</v>
       </c>
-      <c r="B192" s="7">
+      <c r="B192">
         <v>0.2062477581681138</v>
       </c>
-      <c r="C192" s="7">
+      <c r="C192">
         <v>-1.6811380065817616E-10</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="7">
+      <c r="A193">
         <v>81</v>
       </c>
-      <c r="B193" s="7">
+      <c r="B193">
         <v>0.20888105983549524</v>
       </c>
-      <c r="C193" s="7">
+      <c r="C193">
         <v>1.6450477091645155E-10</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="7">
+      <c r="A194">
         <v>82</v>
       </c>
-      <c r="B194" s="7">
+      <c r="B194">
         <v>0.21151524961628054</v>
       </c>
-      <c r="C194" s="7">
+      <c r="C194">
         <v>3.8371944510728895E-10</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="7">
+      <c r="A195">
         <v>83</v>
       </c>
-      <c r="B195" s="7">
+      <c r="B195">
         <v>0.2141503409295599</v>
       </c>
-      <c r="C195" s="7">
+      <c r="C195">
         <v>7.0440098198787382E-11</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="7">
+      <c r="A196">
         <v>84</v>
       </c>
-      <c r="B196" s="7">
+      <c r="B196">
         <v>0.21678634728457746</v>
       </c>
-      <c r="C196" s="7">
+      <c r="C196">
         <v>-2.845774726978334E-10</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="7">
+      <c r="A197">
         <v>85</v>
       </c>
-      <c r="B197" s="7">
+      <c r="B197">
         <v>0.21942328228208244</v>
       </c>
-      <c r="C197" s="7">
+      <c r="C197">
         <v>-2.8208244073901767E-10</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="7">
+      <c r="A198">
         <v>86</v>
       </c>
-      <c r="B198" s="7">
+      <c r="B198">
         <v>0.22206115961568884</v>
       </c>
-      <c r="C198" s="7">
+      <c r="C198">
         <v>3.8431116622383854E-10</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="7">
+      <c r="A199">
         <v>87</v>
       </c>
-      <c r="B199" s="7">
+      <c r="B199">
         <v>0.22469999307324526</v>
       </c>
-      <c r="C199" s="7">
+      <c r="C199">
         <v>-7.3245270959532149E-11</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="7">
+      <c r="A200">
         <v>88</v>
       </c>
-      <c r="B200" s="7">
+      <c r="B200">
         <v>0.22733979653821343</v>
       </c>
-      <c r="C200" s="7">
+      <c r="C200">
         <v>4.6178658119622185E-10</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="7">
+      <c r="A201">
         <v>89</v>
       </c>
-      <c r="B201" s="7">
+      <c r="B201">
         <v>0.22998058399105661</v>
       </c>
-      <c r="C201" s="7">
+      <c r="C201">
         <v>8.9433738192923329E-12</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="7">
+      <c r="A202">
         <v>90</v>
       </c>
-      <c r="B202" s="7">
+      <c r="B202">
         <v>0.23262236951063769</v>
       </c>
-      <c r="C202" s="7">
+      <c r="C202">
         <v>-5.1063769879178267E-10</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="7">
+      <c r="A203">
         <v>91</v>
       </c>
-      <c r="B203" s="7">
+      <c r="B203">
         <v>0.23526516727562707</v>
       </c>
-      <c r="C203" s="7">
+      <c r="C203">
         <v>-2.7562707671791031E-10</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="7">
+      <c r="A204">
         <v>92</v>
       </c>
-      <c r="B204" s="7">
+      <c r="B204">
         <v>0.23790899156592046</v>
       </c>
-      <c r="C204" s="7">
+      <c r="C204">
         <v>4.3407955008234467E-10</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="7">
+      <c r="A205">
         <v>93</v>
       </c>
-      <c r="B205" s="7">
+      <c r="B205">
         <v>0.24055385676406713</v>
       </c>
-      <c r="C205" s="7">
+      <c r="C205">
         <v>2.3593288434042847E-10</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="7">
+      <c r="A206">
         <v>94</v>
       </c>
-      <c r="B206" s="7">
+      <c r="B206">
         <v>0.24319977735670778</v>
       </c>
-      <c r="C206" s="7">
+      <c r="C206">
         <v>-3.5670777442931012E-10</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="7">
+      <c r="A207">
         <v>95</v>
       </c>
-      <c r="B207" s="7">
+      <c r="B207">
         <v>0.24584676793602359</v>
       </c>
-      <c r="C207" s="7">
+      <c r="C207">
         <v>6.3976407504995336E-11</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="7">
+      <c r="A208">
         <v>96</v>
       </c>
-      <c r="B208" s="7">
+      <c r="B208">
         <v>0.24849484320119525</v>
       </c>
-      <c r="C208" s="7">
+      <c r="C208">
         <v>-2.0119525490081003E-10</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="7">
+      <c r="A209">
         <v>97</v>
       </c>
-      <c r="B209" s="7">
+      <c r="B209">
         <v>0.25114401795987296</v>
       </c>
-      <c r="C209" s="7">
+      <c r="C209">
         <v>4.0127068334783189E-11</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="7">
+      <c r="A210">
         <v>98</v>
       </c>
-      <c r="B210" s="7">
+      <c r="B210">
         <v>0.25379430712965723</v>
       </c>
-      <c r="C210" s="7">
+      <c r="C210">
         <v>-1.2965722939739521E-10</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="7">
+      <c r="A211">
         <v>99</v>
       </c>
-      <c r="B211" s="7">
+      <c r="B211">
         <v>0.25644572573959046</v>
       </c>
-      <c r="C211" s="7">
+      <c r="C211">
         <v>2.6040952727512945E-10</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="7">
+      <c r="A212">
         <v>100</v>
       </c>
-      <c r="B212" s="7">
+      <c r="B212">
         <v>0.2590982889316602</v>
       </c>
-      <c r="C212" s="7">
+      <c r="C212">
         <v>6.8339778280801511E-11</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="8">
+      <c r="A213" s="6">
         <v>101</v>
       </c>
-      <c r="B213" s="8">
+      <c r="B213" s="6">
         <v>0.2617520119623129</v>
       </c>
-      <c r="C213" s="8">
+      <c r="C213" s="6">
         <v>3.7687075682413251E-11</v>
       </c>
     </row>

--- a/HW04/Q1/Q1_B_ViralPanchal.xlsx
+++ b/HW04/Q1/Q1_B_ViralPanchal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My files\Study\ME 635\HW04\Q1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1335FF2-CA70-4E19-A499-FA23FED96063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55210E66-4FBF-40CA-8D4C-EBFEFB76E099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BE722FDE-A411-4CBC-8BB7-50E2D409DFC0}"/>
   </bookViews>
@@ -165,10 +165,10 @@
     <t>N</t>
   </si>
   <si>
-    <t>Sum(Residual^2)</t>
+    <t>RMSE</t>
   </si>
   <si>
-    <t>RMSE</t>
+    <t>Sum(resiudal^2)</t>
   </si>
 </sst>
 </file>
@@ -295,20 +295,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -316,6 +306,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1013,7 +1011,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-337D-443A-94B6-3DF6979BF5E2}"/>
+              <c16:uniqueId val="{00000001-06A6-4B59-9D1C-30EEEED5FF14}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1347,307 +1345,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>2.548085700770919E-11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6000016917499926E-3</c:v>
+                  <c:v>2.6000016669730703E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2000133582693646E-3</c:v>
+                  <c:v>5.2000133341960682E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.800045026289241E-3</c:v>
+                  <c:v>7.8000450029189535E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0400106699060063E-2</c:v>
+                  <c:v>1.0400106676391855E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3000208382832763E-2</c:v>
+                  <c:v>1.3000208360865399E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.560036008785941E-2</c:v>
+                  <c:v>1.5600360066591344E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8200571829394246E-2</c:v>
+                  <c:v>1.8200571808823621E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0800853628695212E-2</c:v>
+                  <c:v>2.0800853608819857E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3401215514026068E-2</c:v>
+                  <c:v>2.3401215494843513E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6001667521659267E-2</c:v>
+                  <c:v>2.6001667503166733E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8602219696879552E-2</c:v>
+                  <c:v>2.8602219679073934E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.1202882094988518E-2</c:v>
+                  <c:v>3.1202882077866412E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.3803664782310144E-2</c:v>
+                  <c:v>3.3803664765867825E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.6404577837197395E-2</c:v>
+                  <c:v>3.6404577821430847E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.9005631351040161E-2</c:v>
+                  <c:v>3.9005631335945028E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1606835429274298E-2</c:v>
+                  <c:v>4.1606835414845923E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4208200192392223E-2</c:v>
+                  <c:v>4.4208200178625659E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.6809735776955026E-2</c:v>
+                  <c:v>4.6809735763844972E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.9411452336606029E-2</c:v>
+                  <c:v>4.9411452324146905E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.2013360043086251E-2</c:v>
+                  <c:v>5.2013360031272139E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.4615469087251525E-2</c:v>
+                  <c:v>5.4615469076076201E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.7217789680091627E-2</c:v>
+                  <c:v>5.721778966954856E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.982033205375141E-2</c:v>
+                  <c:v>5.9820332043833746E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.2423106462553939E-2</c:v>
+                  <c:v>6.2423106453254495E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.5026123184026036E-2</c:v>
+                  <c:v>6.5026123175337319E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.762939251992596E-2</c:v>
+                  <c:v>6.7629392511840164E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.0232924797273638E-2</c:v>
+                  <c:v>7.023292478978263E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.2836730369383332E-2</c:v>
+                  <c:v>7.2836730362478688E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.5440819616899052E-2</c:v>
+                  <c:v>7.5440819610571988E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.804520294883259E-2</c:v>
+                  <c:v>7.8045202943074016E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0649890803604365E-2</c:v>
+                  <c:v>8.0649890798404858E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.3254893650087383E-2</c:v>
+                  <c:v>8.3254893645437214E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.5860221988654062E-2</c:v>
+                  <c:v>8.586022198454317E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.8465886352226311E-2</c:v>
+                  <c:v>8.8465886348644315E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.1071897307328814E-2</c:v>
+                  <c:v>9.1071897304264987E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.3678265455145709E-2</c:v>
+                  <c:v>9.3678265452589005E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.6285001432580689E-2</c:v>
+                  <c:v>9.628500143051974E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.88921159133207E-2</c:v>
+                  <c:v>9.8892115911743836E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.10149961960890337</c:v>
+                  <c:v>0.10149961960779855</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.10410752326978813</c:v>
+                  <c:v>0.10410752326914297</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.10671583768643123</c:v>
+                  <c:v>0.10671583768623302</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.1093245736903649</c:v>
+                  <c:v>0.10932457369060064</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1119337421552804</c:v>
+                  <c:v>0.11193374215593672</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.11454335399811551</c:v>
+                  <c:v>0.11454335399917867</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.11715342018014609</c:v>
+                  <c:v>0.11715342018160207</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.11976395170808235</c:v>
+                  <c:v>0.11976395170991679</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.12237495963516946</c:v>
+                  <c:v>0.12237495963736759</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.12498645506229292</c:v>
+                  <c:v>0.1249864550648397</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.12759844913908866</c:v>
+                  <c:v>0.12759844914196866</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.13021095306505792</c:v>
+                  <c:v>0.13021095306825536</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.13282397809068733</c:v>
+                  <c:v>0.13282397809418614</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.13543753551857396</c:v>
+                  <c:v>0.13543753552235765</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.13805163670455542</c:v>
+                  <c:v>0.13805163670860721</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.14066629305884576</c:v>
+                  <c:v>0.14066629306314846</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.14328151604717615</c:v>
+                  <c:v>0.14328151605171227</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.14589731719194177</c:v>
+                  <c:v>0.14589731719669341</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.14851370807335385</c:v>
+                  <c:v>0.14851370807830278</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.15113070033059778</c:v>
+                  <c:v>0.15113070033572545</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.15374830566299713</c:v>
+                  <c:v>0.1537483056682846</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.15636653583118335</c:v>
+                  <c:v>0.15636653583661125</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.15898540265827205</c:v>
+                  <c:v>0.15898540266382075</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.16160491803104532</c:v>
+                  <c:v>0.16160491803669474</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.16422509390114029</c:v>
+                  <c:v>0.16422509390687001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.16684594228624439</c:v>
+                  <c:v>0.16684594229203359</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.16946747527129707</c:v>
+                  <c:v>0.16946747527712466</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.17208970500969845</c:v>
+                  <c:v>0.17208970501554285</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.17471264372452447</c:v>
+                  <c:v>0.17471264373036377</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.17733630370974934</c:v>
+                  <c:v>0.17733630371556125</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.17996069733147491</c:v>
+                  <c:v>0.17996069733723671</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.18258583702916728</c:v>
+                  <c:v>0.18258583703485598</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1852117353169008</c:v>
+                  <c:v>0.18521173532249291</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.18783840478460942</c:v>
+                  <c:v>0.1878384047900811</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.19046585809934574</c:v>
+                  <c:v>0.19046585810467279</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.19309410800654775</c:v>
+                  <c:v>0.19309410801170548</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.19572316733131329</c:v>
+                  <c:v>0.19572316733627673</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.19835304897968262</c:v>
+                  <c:v>0.19835304898442638</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.20098376593992917</c:v>
+                  <c:v>0.20098376594442738</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.20361533128385811</c:v>
+                  <c:v>0.20361533128808457</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.2062477581681138</c:v>
+                  <c:v>0.20624775817204183</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.20888105983549524</c:v>
+                  <c:v>0.20888105983909783</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.21151524961628054</c:v>
+                  <c:v>0.21151524961953025</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.2141503409295599</c:v>
+                  <c:v>0.21415034093242882</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.21678634728457746</c:v>
+                  <c:v>0.21678634728703736</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.21942328228208244</c:v>
+                  <c:v>0.21942328228410454</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.22206115961568884</c:v>
+                  <c:v>0.22206115961724407</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.22469999307324526</c:v>
+                  <c:v>0.22469999307430405</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.22733979653821343</c:v>
+                  <c:v>0.22733979653874581</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.22998058399105661</c:v>
+                  <c:v>0.22998058399103213</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.23262236951063769</c:v>
+                  <c:v>0.23262236951002552</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.23526516727562707</c:v>
+                  <c:v>0.23526516727439589</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.23790899156592046</c:v>
+                  <c:v>0.23790899156403861</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.24055385676406713</c:v>
+                  <c:v>0.24055385676150237</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.24319977735670778</c:v>
+                  <c:v>0.24319977735342752</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.24584676793602359</c:v>
+                  <c:v>0.2458467679319947</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.24849484320119525</c:v>
+                  <c:v>0.24849484319638426</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.25114401795987296</c:v>
+                  <c:v>0.2511440179542459</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.25379430712965723</c:v>
+                  <c:v>0.25379430712317957</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.25644572573959046</c:v>
+                  <c:v>0.25644572573222735</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.2590982889316602</c:v>
+                  <c:v>0.25909828892337616</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.2617520119623129</c:v>
+                  <c:v>0.26175201195307218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1655,7 +1653,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-337D-443A-94B6-3DF6979BF5E2}"/>
+              <c16:uniqueId val="{00000002-06A6-4B59-9D1C-30EEEED5FF14}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1667,11 +1665,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="713400831"/>
-        <c:axId val="713400415"/>
+        <c:axId val="21574080"/>
+        <c:axId val="21573664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="713400831"/>
+        <c:axId val="21574080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,12 +1697,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="713400415"/>
+        <c:crossAx val="21573664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="713400415"/>
+        <c:axId val="21573664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,7 +1730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="713400831"/>
+        <c:crossAx val="21574080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2436,7 +2434,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8276-4F88-BA11-BE8017C982F0}"/>
+              <c16:uniqueId val="{00000001-77F7-410A-A94C-7AC684D2D631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2770,307 +2768,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>2.548085700770919E-11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6000016917499926E-3</c:v>
+                  <c:v>2.6000016669730703E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2000133582693646E-3</c:v>
+                  <c:v>5.2000133341960682E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.800045026289241E-3</c:v>
+                  <c:v>7.8000450029189535E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0400106699060063E-2</c:v>
+                  <c:v>1.0400106676391855E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3000208382832763E-2</c:v>
+                  <c:v>1.3000208360865399E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.560036008785941E-2</c:v>
+                  <c:v>1.5600360066591344E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8200571829394246E-2</c:v>
+                  <c:v>1.8200571808823621E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0800853628695212E-2</c:v>
+                  <c:v>2.0800853608819857E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3401215514026068E-2</c:v>
+                  <c:v>2.3401215494843513E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6001667521659267E-2</c:v>
+                  <c:v>2.6001667503166733E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8602219696879552E-2</c:v>
+                  <c:v>2.8602219679073934E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.1202882094988518E-2</c:v>
+                  <c:v>3.1202882077866412E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.3803664782310144E-2</c:v>
+                  <c:v>3.3803664765867825E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.6404577837197395E-2</c:v>
+                  <c:v>3.6404577821430847E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.9005631351040161E-2</c:v>
+                  <c:v>3.9005631335945028E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1606835429274298E-2</c:v>
+                  <c:v>4.1606835414845923E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4208200192392223E-2</c:v>
+                  <c:v>4.4208200178625659E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.6809735776955026E-2</c:v>
+                  <c:v>4.6809735763844972E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.9411452336606029E-2</c:v>
+                  <c:v>4.9411452324146905E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.2013360043086251E-2</c:v>
+                  <c:v>5.2013360031272139E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.4615469087251525E-2</c:v>
+                  <c:v>5.4615469076076201E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.7217789680091627E-2</c:v>
+                  <c:v>5.721778966954856E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.982033205375141E-2</c:v>
+                  <c:v>5.9820332043833746E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.2423106462553939E-2</c:v>
+                  <c:v>6.2423106453254495E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.5026123184026036E-2</c:v>
+                  <c:v>6.5026123175337319E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.762939251992596E-2</c:v>
+                  <c:v>6.7629392511840164E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.0232924797273638E-2</c:v>
+                  <c:v>7.023292478978263E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.2836730369383332E-2</c:v>
+                  <c:v>7.2836730362478688E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.5440819616899052E-2</c:v>
+                  <c:v>7.5440819610571988E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.804520294883259E-2</c:v>
+                  <c:v>7.8045202943074016E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0649890803604365E-2</c:v>
+                  <c:v>8.0649890798404858E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.3254893650087383E-2</c:v>
+                  <c:v>8.3254893645437214E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.5860221988654062E-2</c:v>
+                  <c:v>8.586022198454317E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.8465886352226311E-2</c:v>
+                  <c:v>8.8465886348644315E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.1071897307328814E-2</c:v>
+                  <c:v>9.1071897304264987E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.3678265455145709E-2</c:v>
+                  <c:v>9.3678265452589005E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.6285001432580689E-2</c:v>
+                  <c:v>9.628500143051974E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.88921159133207E-2</c:v>
+                  <c:v>9.8892115911743836E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.10149961960890337</c:v>
+                  <c:v>0.10149961960779855</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.10410752326978813</c:v>
+                  <c:v>0.10410752326914297</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.10671583768643123</c:v>
+                  <c:v>0.10671583768623302</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.1093245736903649</c:v>
+                  <c:v>0.10932457369060064</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1119337421552804</c:v>
+                  <c:v>0.11193374215593672</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.11454335399811551</c:v>
+                  <c:v>0.11454335399917867</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.11715342018014609</c:v>
+                  <c:v>0.11715342018160207</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.11976395170808235</c:v>
+                  <c:v>0.11976395170991679</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.12237495963516946</c:v>
+                  <c:v>0.12237495963736759</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.12498645506229292</c:v>
+                  <c:v>0.1249864550648397</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.12759844913908866</c:v>
+                  <c:v>0.12759844914196866</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.13021095306505792</c:v>
+                  <c:v>0.13021095306825536</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.13282397809068733</c:v>
+                  <c:v>0.13282397809418614</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.13543753551857396</c:v>
+                  <c:v>0.13543753552235765</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.13805163670455542</c:v>
+                  <c:v>0.13805163670860721</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.14066629305884576</c:v>
+                  <c:v>0.14066629306314846</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.14328151604717615</c:v>
+                  <c:v>0.14328151605171227</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.14589731719194177</c:v>
+                  <c:v>0.14589731719669341</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.14851370807335385</c:v>
+                  <c:v>0.14851370807830278</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.15113070033059778</c:v>
+                  <c:v>0.15113070033572545</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.15374830566299713</c:v>
+                  <c:v>0.1537483056682846</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.15636653583118335</c:v>
+                  <c:v>0.15636653583661125</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.15898540265827205</c:v>
+                  <c:v>0.15898540266382075</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.16160491803104532</c:v>
+                  <c:v>0.16160491803669474</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.16422509390114029</c:v>
+                  <c:v>0.16422509390687001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.16684594228624439</c:v>
+                  <c:v>0.16684594229203359</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.16946747527129707</c:v>
+                  <c:v>0.16946747527712466</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.17208970500969845</c:v>
+                  <c:v>0.17208970501554285</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.17471264372452447</c:v>
+                  <c:v>0.17471264373036377</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.17733630370974934</c:v>
+                  <c:v>0.17733630371556125</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.17996069733147491</c:v>
+                  <c:v>0.17996069733723671</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.18258583702916728</c:v>
+                  <c:v>0.18258583703485598</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1852117353169008</c:v>
+                  <c:v>0.18521173532249291</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.18783840478460942</c:v>
+                  <c:v>0.1878384047900811</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.19046585809934574</c:v>
+                  <c:v>0.19046585810467279</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.19309410800654775</c:v>
+                  <c:v>0.19309410801170548</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.19572316733131329</c:v>
+                  <c:v>0.19572316733627673</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.19835304897968262</c:v>
+                  <c:v>0.19835304898442638</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.20098376593992917</c:v>
+                  <c:v>0.20098376594442738</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.20361533128385811</c:v>
+                  <c:v>0.20361533128808457</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.2062477581681138</c:v>
+                  <c:v>0.20624775817204183</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.20888105983549524</c:v>
+                  <c:v>0.20888105983909783</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.21151524961628054</c:v>
+                  <c:v>0.21151524961953025</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.2141503409295599</c:v>
+                  <c:v>0.21415034093242882</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.21678634728457746</c:v>
+                  <c:v>0.21678634728703736</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.21942328228208244</c:v>
+                  <c:v>0.21942328228410454</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.22206115961568884</c:v>
+                  <c:v>0.22206115961724407</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.22469999307324526</c:v>
+                  <c:v>0.22469999307430405</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.22733979653821343</c:v>
+                  <c:v>0.22733979653874581</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.22998058399105661</c:v>
+                  <c:v>0.22998058399103213</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.23262236951063769</c:v>
+                  <c:v>0.23262236951002552</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.23526516727562707</c:v>
+                  <c:v>0.23526516727439589</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.23790899156592046</c:v>
+                  <c:v>0.23790899156403861</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.24055385676406713</c:v>
+                  <c:v>0.24055385676150237</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.24319977735670778</c:v>
+                  <c:v>0.24319977735342752</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.24584676793602359</c:v>
+                  <c:v>0.2458467679319947</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.24849484320119525</c:v>
+                  <c:v>0.24849484319638426</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.25114401795987296</c:v>
+                  <c:v>0.2511440179542459</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.25379430712965723</c:v>
+                  <c:v>0.25379430712317957</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.25644572573959046</c:v>
+                  <c:v>0.25644572573222735</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.2590982889316602</c:v>
+                  <c:v>0.25909828892337616</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.2617520119623129</c:v>
+                  <c:v>0.26175201195307218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3078,7 +3076,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8276-4F88-BA11-BE8017C982F0}"/>
+              <c16:uniqueId val="{00000002-77F7-410A-A94C-7AC684D2D631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3090,11 +3088,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="667126687"/>
-        <c:axId val="667127103"/>
+        <c:axId val="57011408"/>
+        <c:axId val="57013072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="667126687"/>
+        <c:axId val="57011408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3122,12 +3120,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="667127103"/>
+        <c:crossAx val="57013072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="667127103"/>
+        <c:axId val="57013072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,7 +3153,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="667126687"/>
+        <c:crossAx val="57011408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3187,23 +3185,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1055370</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>177165</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>377190</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39C2AD73-E825-3267-30F2-9000E60DBFF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D26B0F2-77BB-CC7E-9783-596A975AEAC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3223,23 +3221,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1061084</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>40003</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>272415</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8786DCC2-4663-3E0C-5B9D-3EB10560139C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E0CBD18-1AE9-CA12-2F13-989C2F4D3BA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3559,8 +3557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5190E841-66DD-4E1C-8A12-F3D2DD0484BC}">
   <dimension ref="A1:O213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3577,14 +3575,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -3596,14 +3594,14 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -3701,24 +3699,16 @@
       </c>
       <c r="D6" s="4">
         <f t="shared" ref="D6:D69" si="1">($H$23*B6)+($H$24*C6)</f>
-        <v>2.6000016662691356E-3</v>
+        <v>2.6000016669730703E-3</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" ref="E6:E69" si="2">(D6-A6)^2</f>
-        <v>1.1137628995865723E-19</v>
+        <v>1.1090693598379086E-19</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -3733,22 +3723,13 @@
       </c>
       <c r="D7" s="4">
         <f t="shared" si="1"/>
-        <v>5.2000133327885075E-3</v>
+        <v>5.2000133341960682E-3</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="2"/>
-        <v>1.1074819084948531E-19</v>
+        <v>1.1168701212623696E-19</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -3763,24 +3744,17 @@
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>7.800045000808384E-3</v>
+        <v>7.8000450029189535E-3</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="2"/>
-        <v>6.5348427415273466E-25</v>
+        <v>8.5202882130753577E-24</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -3795,26 +3769,19 @@
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>1.0400106673579206E-2</v>
+        <v>1.0400106676391855E-2</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="2"/>
-        <v>1.0655053534820391E-19</v>
+        <v>1.0472223182671228E-19</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="10">
         <v>1</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
@@ -3829,26 +3796,19 @@
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>1.3000208357351906E-2</v>
+        <v>1.3000208360865399E-2</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="2"/>
-        <v>1.2770038525517298E-19</v>
+        <v>1.3022383696188677E-19</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="10">
         <v>1</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -3863,26 +3823,19 @@
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>1.5600360062378553E-2</v>
+        <v>1.5600360066591344E-2</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="2"/>
-        <v>3.8910837466911029E-21</v>
+        <v>4.4344070358568001E-21</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="H11" s="10">
+        <v>0.98989898989898994</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -3897,26 +3850,19 @@
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>1.8200571803913389E-2</v>
+        <v>1.8200571808823621E-2</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="2"/>
-        <v>3.8449959493977405E-20</v>
+        <v>3.6548408377723172E-20</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="1">
-        <v>2.737992337230153E-10</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="H12" s="10">
+        <v>2.7259111969973267E-10</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
@@ -3931,26 +3877,19 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>2.0800853603214355E-2</v>
+        <v>2.0800853608819857E-2</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="2"/>
-        <v>1.5743884887664841E-19</v>
+        <v>1.5302190492902662E-19</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="11">
         <v>101</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -3965,22 +3904,13 @@
       </c>
       <c r="D14" s="4">
         <f t="shared" si="1"/>
-        <v>2.3401215488545211E-2</v>
+        <v>2.3401215494843513E-2</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="2"/>
-        <v>2.3867642341596747E-19</v>
+        <v>2.4487010274198111E-19</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -3995,24 +3925,16 @@
       </c>
       <c r="D15" s="4">
         <f t="shared" si="1"/>
-        <v>2.600166749617841E-2</v>
+        <v>2.6001667503166733E-2</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="2"/>
-        <v>2.5383619315505124E-19</v>
+        <v>2.4684329370826131E-19</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -4027,32 +3949,29 @@
       </c>
       <c r="D16" s="4">
         <f t="shared" si="1"/>
-        <v>2.8602219671398699E-2</v>
+        <v>2.8602219679073934E-2</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="2"/>
-        <v>1.0797881595107375E-19</v>
+        <v>1.0299354046160669E-19</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
@@ -4067,34 +3986,31 @@
       </c>
       <c r="D17" s="4">
         <f t="shared" si="1"/>
-        <v>3.1202882069507661E-2</v>
+        <v>3.1202882077866412E-2</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="2"/>
-        <v>4.8313148048369236E-21</v>
+        <v>6.0631779987003022E-21</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="10">
         <v>2</v>
       </c>
-      <c r="I17" s="1">
-        <v>0.58736402006659427</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.29368201003329714</v>
-      </c>
-      <c r="K17" s="1">
-        <v>3.9175350180787948E+18</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="I17" s="10">
+        <v>2.305713058244534</v>
+      </c>
+      <c r="J17" s="10">
+        <v>1.152856529122267</v>
+      </c>
+      <c r="K17" s="10">
+        <v>1.5515002731778263E+19</v>
+      </c>
+      <c r="L17" s="10">
         <v>0</v>
       </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
@@ -4109,30 +4025,27 @@
       </c>
       <c r="D18" s="4">
         <f t="shared" si="1"/>
-        <v>3.3803664756829284E-2</v>
+        <v>3.3803664765867825E-2</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="2"/>
-        <v>5.91319955308855E-20</v>
+        <v>5.481787395767634E-20</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="1">
-        <v>98</v>
-      </c>
-      <c r="I18" s="1">
-        <v>7.3466699979564146E-18</v>
-      </c>
-      <c r="J18" s="1">
-        <v>7.4966020387310351E-20</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="H18" s="10">
+        <v>99</v>
+      </c>
+      <c r="I18" s="10">
+        <v>7.3562859353762441E-18</v>
+      </c>
+      <c r="J18" s="10">
+        <v>7.4305918539153976E-20</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
@@ -4147,28 +4060,25 @@
       </c>
       <c r="D19" s="4">
         <f t="shared" si="1"/>
-        <v>3.6404577811716542E-2</v>
+        <v>3.6404577821430847E-2</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="2"/>
-        <v>3.5450660657709453E-20</v>
+        <v>3.1886942231795298E-20</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="9">
-        <v>100</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0.58736402006659427</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="H19" s="11">
+        <v>101</v>
+      </c>
+      <c r="I19" s="11">
+        <v>2.305713058244534</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
@@ -4183,22 +4093,13 @@
       </c>
       <c r="D20" s="4">
         <f t="shared" si="1"/>
-        <v>3.9005631325559301E-2</v>
+        <v>3.9005631335945028E-2</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="2"/>
-        <v>1.0598885894896463E-19</v>
+        <v>1.1285906233505459E-19</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -4213,36 +4114,36 @@
       </c>
       <c r="D21" s="4">
         <f t="shared" si="1"/>
-        <v>4.1606835403793438E-2</v>
+        <v>4.1606835414845923E-2</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="2"/>
-        <v>1.6304913910834585E-19</v>
+        <v>1.7209713858821103E-19</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
+      <c r="G21" s="12"/>
+      <c r="H21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4259,39 +4160,39 @@
       </c>
       <c r="D22" s="4">
         <f t="shared" si="1"/>
-        <v>4.420820016691137E-2</v>
+        <v>4.4208200178625659E-2</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="2"/>
-        <v>2.7859404324469052E-20</v>
+        <v>3.1907124957600063E-20</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="1">
-        <v>2.548085700770919E-11</v>
-      </c>
-      <c r="I22" s="1">
-        <v>7.1147413373982075E-11</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.35814172011806822</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.72100753625235803</v>
-      </c>
-      <c r="L22" s="1">
-        <v>-1.1570886930541953E-10</v>
-      </c>
-      <c r="M22" s="1">
-        <v>1.6667058332083791E-10</v>
-      </c>
-      <c r="N22" s="1">
-        <v>-1.1570886930541953E-10</v>
-      </c>
-      <c r="O22" s="1">
-        <v>1.6667058332083791E-10</v>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J22" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K22" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L22" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M22" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N22" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O22" s="10" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -4307,39 +4208,39 @@
       </c>
       <c r="D23" s="4">
         <f t="shared" si="1"/>
-        <v>4.6809735751474166E-2</v>
+        <v>4.6809735763844972E-2</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>6.1765089100972311E-20</v>
+        <v>5.5769196347506311E-20</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="11">
-        <v>0.24999999972548181</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1.5394454846344876E-9</v>
-      </c>
-      <c r="J23" s="1">
-        <v>162396136.93422836</v>
-      </c>
-      <c r="K23" s="1">
+      <c r="H23" s="7">
+        <v>0.25000000010500228</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1.1117402614193839E-9</v>
+      </c>
+      <c r="J23" s="10">
+        <v>224872669.25623584</v>
+      </c>
+      <c r="K23" s="10">
         <v>0</v>
       </c>
-      <c r="L23" s="1">
-        <v>0.24999999667050235</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0.25000000278046125</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0.24999999667050235</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0.25000000278046125</v>
+      <c r="L23" s="10">
+        <v>0.2499999978990684</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0.25000000231093616</v>
+      </c>
+      <c r="N23" s="10">
+        <v>0.2499999978990684</v>
+      </c>
+      <c r="O23" s="10">
+        <v>0.25000000231093616</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4355,39 +4256,39 @@
       </c>
       <c r="D24" s="4">
         <f t="shared" si="1"/>
-        <v>4.9411452311125176E-2</v>
+        <v>4.9411452324146905E-2</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="2"/>
-        <v>9.6798874042713976E-20</v>
+        <v>1.0507121521908966E-19</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="12">
-        <v>1.0000000233927803E-2</v>
-      </c>
-      <c r="I24" s="9">
-        <v>1.3285094266989047E-9</v>
-      </c>
-      <c r="J24" s="9">
-        <v>7527233.1779955197</v>
-      </c>
-      <c r="K24" s="9">
+      <c r="H24" s="8">
+        <v>9.9999999248059929E-3</v>
+      </c>
+      <c r="I24" s="11">
+        <v>1.0054708450005139E-9</v>
+      </c>
+      <c r="J24" s="11">
+        <v>9945589.1481377389</v>
+      </c>
+      <c r="K24" s="11">
         <v>0</v>
       </c>
-      <c r="L24" s="9">
-        <v>9.999997597544082E-3</v>
-      </c>
-      <c r="M24" s="9">
-        <v>1.0000002870311523E-2</v>
-      </c>
-      <c r="N24" s="9">
-        <v>9.999997597544082E-3</v>
-      </c>
-      <c r="O24" s="9">
-        <v>1.0000002870311523E-2</v>
+      <c r="L24" s="11">
+        <v>9.9999979297336981E-3</v>
+      </c>
+      <c r="M24" s="11">
+        <v>1.0000001919878288E-2</v>
+      </c>
+      <c r="N24" s="11">
+        <v>9.9999979297336981E-3</v>
+      </c>
+      <c r="O24" s="11">
+        <v>1.0000001919878288E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -4403,22 +4304,13 @@
       </c>
       <c r="D25" s="4">
         <f t="shared" si="1"/>
-        <v>5.2013360017605398E-2</v>
+        <v>5.2013360031272139E-2</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="2"/>
-        <v>3.099499791428297E-22</v>
+        <v>9.7794659365024448E-22</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -4433,22 +4325,13 @@
       </c>
       <c r="D26" s="4">
         <f t="shared" si="1"/>
-        <v>5.4615469061770665E-2</v>
+        <v>5.4615469076076201E-2</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="2"/>
-        <v>3.815615051074099E-21</v>
+        <v>5.7875883425324442E-21</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
@@ -4463,22 +4346,13 @@
       </c>
       <c r="D27" s="4">
         <f t="shared" si="1"/>
-        <v>5.7217789654610773E-2</v>
+        <v>5.721778966954856E-2</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="2"/>
-        <v>1.1929371616971802E-19</v>
+        <v>1.0919815224658676E-19</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
@@ -4493,22 +4367,20 @@
       </c>
       <c r="D28" s="4">
         <f t="shared" si="1"/>
-        <v>5.9820332028270556E-2</v>
+        <v>5.9820332043833746E-2</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="2"/>
-        <v>7.9922453469720368E-22</v>
+        <v>1.9213975628283758E-21</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28">
+        <f>COUNT(A5:A105)</f>
+        <v>101</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
@@ -4523,27 +4395,20 @@
       </c>
       <c r="D29" s="4">
         <f t="shared" si="1"/>
-        <v>6.2423106437073085E-2</v>
+        <v>6.2423106453254495E-2</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="2"/>
-        <v>1.9103288255539401E-19</v>
+        <v>2.0543963853881358E-19</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="1">
-        <f>COUNT(A5:A105)</f>
-        <v>101</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29">
+        <f>SUM(E5:E105)</f>
+        <v>7.3562858365447161E-18</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
@@ -4558,27 +4423,20 @@
       </c>
       <c r="D30" s="4">
         <f t="shared" si="1"/>
-        <v>6.5026123158545182E-2</v>
+        <v>6.5026123175337319E-2</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="2"/>
-        <v>2.5136573145836159E-20</v>
+        <v>3.0743173720092161E-20</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="1">
-        <f>SUM(E5:E105)</f>
-        <v>7.4122468950733105E-18</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="H30" s="6">
+        <f>SQRT(H29/H28)</f>
+        <v>2.6987870096233236E-10</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
@@ -4593,27 +4451,13 @@
       </c>
       <c r="D31" s="4">
         <f t="shared" si="1"/>
-        <v>6.7629392494445106E-2</v>
+        <v>6.7629392511840164E-2</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="2"/>
-        <v>2.5558574641690232E-19</v>
+        <v>2.3830002157990628E-19</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="8">
-        <f>SQRT(H30/H29)</f>
-        <v>2.7090327262611228E-10</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
@@ -4628,11 +4472,11 @@
       </c>
       <c r="D32" s="4">
         <f t="shared" si="1"/>
-        <v>7.0232924771792785E-2</v>
+        <v>7.023292478978263E-2</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" si="2"/>
-        <v>5.2078533896513966E-20</v>
+        <v>4.4191343191288939E-20</v>
       </c>
       <c r="F32" s="2"/>
     </row>
@@ -4649,11 +4493,11 @@
       </c>
       <c r="D33" s="4">
         <f t="shared" si="1"/>
-        <v>7.2836730343902478E-2</v>
+        <v>7.2836730362478688E-2</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="2"/>
-        <v>1.1826891295839917E-19</v>
+        <v>1.3139079777219713E-19</v>
       </c>
       <c r="F33" s="2"/>
     </row>
@@ -4670,11 +4514,11 @@
       </c>
       <c r="D34" s="4">
         <f t="shared" si="1"/>
-        <v>7.5440819591418198E-2</v>
+        <v>7.5440819610571988E-2</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" si="2"/>
-        <v>1.6693909323718416E-19</v>
+        <v>1.5165418090034157E-19</v>
       </c>
       <c r="F34" s="2"/>
     </row>
@@ -4691,11 +4535,11 @@
       </c>
       <c r="D35" s="4">
         <f t="shared" si="1"/>
-        <v>7.8045202923351736E-2</v>
+        <v>7.8045202943074016E-2</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="2"/>
-        <v>5.8749553296012475E-21</v>
+        <v>3.2405669508174055E-21</v>
       </c>
       <c r="F35" s="2"/>
     </row>
@@ -4712,11 +4556,11 @@
       </c>
       <c r="D36" s="4">
         <f t="shared" si="1"/>
-        <v>8.0649890778123512E-2</v>
+        <v>8.0649890798404858E-2</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" si="2"/>
-        <v>4.9229176550033626E-20</v>
+        <v>4.0640601824924642E-20</v>
       </c>
       <c r="F36" s="2"/>
     </row>
@@ -4733,11 +4577,11 @@
       </c>
       <c r="D37" s="4">
         <f t="shared" si="1"/>
-        <v>8.325489362460653E-2</v>
+        <v>8.3254893645437214E-2</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" si="2"/>
-        <v>1.4092025454973167E-19</v>
+        <v>1.2571476631743949E-19</v>
       </c>
       <c r="F37" s="2"/>
     </row>
@@ -4754,11 +4598,11 @@
       </c>
       <c r="D38" s="4">
         <f t="shared" si="1"/>
-        <v>8.5860221963173208E-2</v>
+        <v>8.586022198454317E-2</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" si="2"/>
-        <v>1.3562125807435219E-21</v>
+        <v>2.3891360169149682E-22</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -4775,11 +4619,11 @@
       </c>
       <c r="D39" s="4">
         <f t="shared" si="1"/>
-        <v>8.8465886326745458E-2</v>
+        <v>8.8465886348644315E-2</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="2"/>
-        <v>1.0676259825685113E-19</v>
+        <v>1.2155286308570903E-19</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -4796,11 +4640,11 @@
       </c>
       <c r="D40" s="4">
         <f t="shared" si="1"/>
-        <v>9.1071897281847961E-2</v>
+        <v>9.1071897304264987E-2</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" si="2"/>
-        <v>7.9438273478490358E-20</v>
+        <v>9.2577183047128498E-20</v>
       </c>
       <c r="F40" s="2"/>
     </row>
@@ -4817,11 +4661,11 @@
       </c>
       <c r="D41" s="4">
         <f t="shared" si="1"/>
-        <v>9.3678265429664856E-2</v>
+        <v>9.3678265452589005E-2</v>
       </c>
       <c r="E41" s="4">
         <f t="shared" si="2"/>
-        <v>1.8461189127193784E-19</v>
+        <v>2.0483681010598963E-19</v>
       </c>
       <c r="F41" s="2"/>
     </row>
@@ -4838,11 +4682,11 @@
       </c>
       <c r="D42" s="4">
         <f t="shared" si="1"/>
-        <v>9.6285001407099835E-2</v>
+        <v>9.628500143051974E-2</v>
       </c>
       <c r="E42" s="4">
         <f t="shared" si="2"/>
-        <v>1.6573027968706096E-19</v>
+        <v>1.8534725070913119E-19</v>
       </c>
       <c r="F42" s="2"/>
     </row>
@@ -4859,11 +4703,11 @@
       </c>
       <c r="D43" s="4">
         <f t="shared" si="1"/>
-        <v>9.8892115887839846E-2</v>
+        <v>9.8892115911743836E-2</v>
       </c>
       <c r="E43" s="4">
         <f t="shared" si="2"/>
-        <v>1.2579900630433662E-20</v>
+        <v>7.7891508836306113E-21</v>
       </c>
       <c r="F43" s="2"/>
     </row>
@@ -4880,11 +4724,11 @@
       </c>
       <c r="D44" s="4">
         <f t="shared" si="1"/>
-        <v>0.10149961958342252</v>
+        <v>0.10149961960779855</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="2"/>
-        <v>1.7353679754633719E-19</v>
+        <v>1.5382197884965012E-19</v>
       </c>
       <c r="F44" s="2"/>
     </row>
@@ -4901,11 +4745,11 @@
       </c>
       <c r="D45" s="4">
         <f t="shared" si="1"/>
-        <v>0.10410752324430728</v>
+        <v>0.10410752326914297</v>
       </c>
       <c r="E45" s="4">
         <f t="shared" si="2"/>
-        <v>5.9686048398526148E-20</v>
+        <v>7.2437939268395195E-20</v>
       </c>
       <c r="F45" s="2"/>
     </row>
@@ -4922,11 +4766,11 @@
       </c>
       <c r="D46" s="4">
         <f t="shared" si="1"/>
-        <v>0.10671583766095037</v>
+        <v>0.10671583768623302</v>
       </c>
       <c r="E46" s="4">
         <f t="shared" si="2"/>
-        <v>1.1495464598270839E-19</v>
+        <v>9.8449711926543198E-20</v>
       </c>
       <c r="F46" s="2"/>
     </row>
@@ -4943,11 +4787,11 @@
       </c>
       <c r="D47" s="4">
         <f t="shared" si="1"/>
-        <v>0.10932457366488404</v>
+        <v>0.10932457369060064</v>
       </c>
       <c r="E47" s="4">
         <f t="shared" si="2"/>
-        <v>1.1230269919346326E-19</v>
+        <v>9.5727959859480562E-20</v>
       </c>
       <c r="F47" s="2"/>
     </row>
@@ -4964,11 +4808,11 @@
       </c>
       <c r="D48" s="4">
         <f t="shared" si="1"/>
-        <v>0.11193374212979955</v>
+        <v>0.11193374215593672</v>
       </c>
       <c r="E48" s="4">
         <f t="shared" si="2"/>
-        <v>1.68479221707162E-20</v>
+        <v>2.4316261227069462E-20</v>
       </c>
       <c r="F48" s="2"/>
     </row>
@@ -4985,11 +4829,11 @@
       </c>
       <c r="D49" s="4">
         <f t="shared" si="1"/>
-        <v>0.11454335397263465</v>
+        <v>0.11454335399917867</v>
       </c>
       <c r="E49" s="4">
         <f t="shared" si="2"/>
-        <v>7.4886216718706876E-22</v>
+        <v>6.7458151650989736E-25</v>
       </c>
       <c r="F49" s="2"/>
     </row>
@@ -5006,11 +4850,11 @@
       </c>
       <c r="D50" s="4">
         <f t="shared" si="1"/>
-        <v>0.11715342015466523</v>
+        <v>0.11715342018160207</v>
       </c>
       <c r="E50" s="4">
         <f t="shared" si="2"/>
-        <v>2.3921336139296527E-20</v>
+        <v>3.297931567664669E-20</v>
       </c>
       <c r="F50" s="2"/>
     </row>
@@ -5027,11 +4871,11 @@
       </c>
       <c r="D51" s="4">
         <f t="shared" si="1"/>
-        <v>0.1197639516826015</v>
+        <v>0.11976395170991679</v>
       </c>
       <c r="E51" s="4">
         <f t="shared" si="2"/>
-        <v>1.0074181431034995E-19</v>
+        <v>8.4148275298707156E-20</v>
       </c>
       <c r="F51" s="2"/>
     </row>
@@ -5048,11 +4892,11 @@
       </c>
       <c r="D52" s="4">
         <f t="shared" si="1"/>
-        <v>0.12237495960968861</v>
+        <v>0.12237495963736759</v>
       </c>
       <c r="E52" s="4">
         <f t="shared" si="2"/>
-        <v>1.5234298453290067E-19</v>
+        <v>1.3150226493564439E-19</v>
       </c>
       <c r="F52" s="2"/>
     </row>
@@ -5069,11 +4913,11 @@
       </c>
       <c r="D53" s="4">
         <f t="shared" si="1"/>
-        <v>0.12498645503681208</v>
+        <v>0.1249864550648397</v>
       </c>
       <c r="E53" s="4">
         <f t="shared" si="2"/>
-        <v>1.3551293194136627E-21</v>
+        <v>4.2041870917620952E-21</v>
       </c>
       <c r="F53" s="2"/>
     </row>
@@ -5090,11 +4934,11 @@
       </c>
       <c r="D54" s="4">
         <f t="shared" si="1"/>
-        <v>0.12759844911360779</v>
+        <v>0.12759844914196866</v>
       </c>
       <c r="E54" s="4">
         <f t="shared" si="2"/>
-        <v>1.2906729912843732E-20</v>
+        <v>2.0155100152715593E-20</v>
       </c>
       <c r="F54" s="2"/>
     </row>
@@ -5111,11 +4955,11 @@
       </c>
       <c r="D55" s="4">
         <f t="shared" si="1"/>
-        <v>0.13021095303957705</v>
+        <v>0.13021095306825536</v>
       </c>
       <c r="E55" s="4">
         <f t="shared" si="2"/>
-        <v>1.5663439828590548E-21</v>
+        <v>4.6587960219111854E-21</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -5132,11 +4976,11 @@
       </c>
       <c r="D56" s="4">
         <f t="shared" si="1"/>
-        <v>0.13282397806520646</v>
+        <v>0.13282397809418614</v>
       </c>
       <c r="E56" s="4">
         <f t="shared" si="2"/>
-        <v>4.2518812976016435E-21</v>
+        <v>8.8710272947054849E-21</v>
       </c>
       <c r="F56" s="2"/>
     </row>
@@ -5153,11 +4997,11 @@
       </c>
       <c r="D57" s="4">
         <f t="shared" si="1"/>
-        <v>0.13543753549309309</v>
+        <v>0.13543753552235765</v>
       </c>
       <c r="E57" s="4">
         <f t="shared" si="2"/>
-        <v>2.569546106812057E-19</v>
+        <v>2.281422072005397E-19</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -5174,11 +5018,11 @@
       </c>
       <c r="D58" s="4">
         <f t="shared" si="1"/>
-        <v>0.13805163667907455</v>
+        <v>0.13805163670860721</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="2"/>
-        <v>1.0299314630565224E-19</v>
+        <v>8.4909763180316974E-20</v>
       </c>
       <c r="F58" s="2"/>
     </row>
@@ -5195,11 +5039,11 @@
       </c>
       <c r="D59" s="4">
         <f t="shared" si="1"/>
-        <v>0.14066629303336489</v>
+        <v>0.14066629306314846</v>
       </c>
       <c r="E59" s="4">
         <f t="shared" si="2"/>
-        <v>1.113216163697361E-21</v>
+        <v>3.98772783421299E-21</v>
       </c>
       <c r="F59" s="2"/>
     </row>
@@ -5216,11 +5060,11 @@
       </c>
       <c r="D60" s="4">
         <f t="shared" si="1"/>
-        <v>0.14328151602169528</v>
+        <v>0.14328151605171227</v>
       </c>
       <c r="E60" s="4">
         <f t="shared" si="2"/>
-        <v>4.7068536770635167E-22</v>
+        <v>2.6741592152653044E-21</v>
       </c>
       <c r="F60" s="2"/>
     </row>
@@ -5237,11 +5081,11 @@
       </c>
       <c r="D61" s="4">
         <f t="shared" si="1"/>
-        <v>0.1458973171664609</v>
+        <v>0.14589731719669341</v>
       </c>
       <c r="E61" s="4">
         <f t="shared" si="2"/>
-        <v>2.7709231434926623E-20</v>
+        <v>3.8688298150426057E-20</v>
       </c>
       <c r="F61" s="2"/>
     </row>
@@ -5258,11 +5102,11 @@
       </c>
       <c r="D62" s="4">
         <f t="shared" si="1"/>
-        <v>0.14851370804787298</v>
+        <v>0.14851370807830278</v>
       </c>
       <c r="E62" s="4">
         <f t="shared" si="2"/>
-        <v>2.2918225353359159E-21</v>
+        <v>6.1313255007309903E-21</v>
       </c>
       <c r="F62" s="2"/>
     </row>
@@ -5279,11 +5123,11 @@
       </c>
       <c r="D63" s="4">
         <f t="shared" si="1"/>
-        <v>0.15113070030511691</v>
+        <v>0.15113070033572545</v>
       </c>
       <c r="E63" s="4">
         <f t="shared" si="2"/>
-        <v>9.3096325085022616E-20</v>
+        <v>1.1271157606034218E-19</v>
       </c>
       <c r="F63" s="2"/>
     </row>
@@ -5300,11 +5144,11 @@
       </c>
       <c r="D64" s="4">
         <f t="shared" si="1"/>
-        <v>0.15374830563751626</v>
+        <v>0.1537483056682846</v>
       </c>
       <c r="E64" s="4">
         <f t="shared" si="2"/>
-        <v>1.31394459930581E-19</v>
+        <v>1.1003511000991118E-19</v>
       </c>
       <c r="F64" s="2"/>
     </row>
@@ -5321,11 +5165,11 @@
       </c>
       <c r="D65" s="4">
         <f t="shared" si="1"/>
-        <v>0.15636653580570248</v>
+        <v>0.15636653583661125</v>
       </c>
       <c r="E65" s="4">
         <f t="shared" si="2"/>
-        <v>3.7751527255677075E-20</v>
+        <v>2.6695882638558164E-20</v>
       </c>
       <c r="F65" s="2"/>
     </row>
@@ -5342,11 +5186,11 @@
       </c>
       <c r="D66" s="4">
         <f t="shared" si="1"/>
-        <v>0.15898540263279118</v>
+        <v>0.15898540266382075</v>
       </c>
       <c r="E66" s="4">
         <f t="shared" si="2"/>
-        <v>1.3484231668360796E-19</v>
+        <v>1.1301648887259744E-19</v>
       </c>
       <c r="F66" s="2"/>
     </row>
@@ -5363,11 +5207,11 @@
       </c>
       <c r="D67" s="4">
         <f t="shared" si="1"/>
-        <v>0.16160491800556445</v>
+        <v>0.16160491803669474</v>
       </c>
       <c r="E67" s="4">
         <f t="shared" si="2"/>
-        <v>3.0963276912746961E-23</v>
+        <v>1.3465052898514093E-21</v>
       </c>
       <c r="F67" s="2"/>
     </row>
@@ -5384,11 +5228,11 @@
       </c>
       <c r="D68" s="4">
         <f t="shared" si="1"/>
-        <v>0.16422509387565942</v>
+        <v>0.16422509390687001</v>
       </c>
       <c r="E68" s="4">
         <f t="shared" si="2"/>
-        <v>1.5460576259073217E-20</v>
+        <v>8.6731924210496165E-21</v>
       </c>
       <c r="F68" s="2"/>
     </row>
@@ -5405,11 +5249,11 @@
       </c>
       <c r="D69" s="4">
         <f t="shared" si="1"/>
-        <v>0.16684594226076352</v>
+        <v>0.16684594229203359</v>
       </c>
       <c r="E69" s="4">
         <f t="shared" si="2"/>
-        <v>6.7997614346667426E-20</v>
+        <v>8.528361871235521E-20</v>
       </c>
       <c r="F69" s="2"/>
     </row>
@@ -5426,11 +5270,11 @@
       </c>
       <c r="D70" s="4">
         <f t="shared" ref="D70:D105" si="4">($H$23*B70)+($H$24*C70)</f>
-        <v>0.16946747524581621</v>
+        <v>0.16946747527712466</v>
       </c>
       <c r="E70" s="4">
         <f t="shared" ref="E70:E105" si="5">(D70-A70)^2</f>
-        <v>6.0425604540320895E-20</v>
+        <v>7.6798075271185172E-20</v>
       </c>
       <c r="F70" s="2"/>
     </row>
@@ -5447,11 +5291,11 @@
       </c>
       <c r="D71" s="4">
         <f t="shared" si="4"/>
-        <v>0.17208970498421758</v>
+        <v>0.17208970501554285</v>
       </c>
       <c r="E71" s="4">
         <f t="shared" si="5"/>
-        <v>2.4908512567229306E-22</v>
+        <v>2.4158002413482121E-22</v>
       </c>
       <c r="F71" s="2"/>
     </row>
@@ -5468,11 +5312,11 @@
       </c>
       <c r="D72" s="4">
         <f t="shared" si="4"/>
-        <v>0.1747126436990436</v>
+        <v>0.17471264373036377</v>
       </c>
       <c r="E72" s="4">
         <f t="shared" si="5"/>
-        <v>9.0574753913115751E-20</v>
+        <v>7.2703696534170708E-20</v>
       </c>
       <c r="F72" s="2"/>
     </row>
@@ -5489,11 +5333,11 @@
       </c>
       <c r="D73" s="4">
         <f t="shared" si="4"/>
-        <v>0.17733630368426848</v>
+        <v>0.17733630371556125</v>
       </c>
       <c r="E73" s="4">
         <f t="shared" si="5"/>
-        <v>9.9686395410637933E-20</v>
+        <v>8.0905402689807755E-20</v>
       </c>
       <c r="F73" s="2"/>
     </row>
@@ -5510,11 +5354,11 @@
       </c>
       <c r="D74" s="4">
         <f t="shared" si="4"/>
-        <v>0.17996069730599404</v>
+        <v>0.17996069733723671</v>
       </c>
       <c r="E74" s="4">
         <f t="shared" si="5"/>
-        <v>9.363234986275872E-20</v>
+        <v>1.1372859909704546E-19</v>
       </c>
       <c r="F74" s="2"/>
     </row>
@@ -5531,11 +5375,11 @@
       </c>
       <c r="D75" s="4">
         <f t="shared" si="4"/>
-        <v>0.18258583700368641</v>
+        <v>0.18258583703485598</v>
       </c>
       <c r="E75" s="4">
         <f t="shared" si="5"/>
-        <v>1.3589635546360336E-23</v>
+        <v>1.2149392869698316E-21</v>
       </c>
       <c r="F75" s="2"/>
     </row>
@@ -5552,11 +5396,11 @@
       </c>
       <c r="D76" s="4">
         <f t="shared" si="4"/>
-        <v>0.18521173529141993</v>
+        <v>0.18521173532249291</v>
       </c>
       <c r="E76" s="4">
         <f t="shared" si="5"/>
-        <v>8.4925583604792315E-20</v>
+        <v>1.0400168426049438E-19</v>
       </c>
       <c r="F76" s="2"/>
     </row>
@@ -5573,11 +5417,11 @@
       </c>
       <c r="D77" s="4">
         <f t="shared" si="4"/>
-        <v>0.18783840475912855</v>
+        <v>0.1878384047900811</v>
       </c>
       <c r="E77" s="4">
         <f t="shared" si="5"/>
-        <v>5.8019061044774687E-20</v>
+        <v>4.4065951119764792E-20</v>
       </c>
       <c r="F77" s="2"/>
     </row>
@@ -5594,11 +5438,11 @@
       </c>
       <c r="D78" s="4">
         <f t="shared" si="4"/>
-        <v>0.19046585807386487</v>
+        <v>0.19046585810467279</v>
       </c>
       <c r="E78" s="4">
         <f t="shared" si="5"/>
-        <v>5.4560214472540794E-21</v>
+        <v>1.0956394684442793E-20</v>
       </c>
       <c r="F78" s="2"/>
     </row>
@@ -5615,11 +5459,11 @@
       </c>
       <c r="D79" s="4">
         <f t="shared" si="4"/>
-        <v>0.19309410798106688</v>
+        <v>0.19309410801170548</v>
       </c>
       <c r="E79" s="4">
         <f t="shared" si="5"/>
-        <v>3.5846246811111823E-22</v>
+        <v>1.3701867598933008E-22</v>
       </c>
       <c r="F79" s="2"/>
     </row>
@@ -5636,11 +5480,11 @@
       </c>
       <c r="D80" s="4">
         <f t="shared" si="4"/>
-        <v>0.19572316730583242</v>
+        <v>0.19572316733627673</v>
       </c>
       <c r="E80" s="4">
         <f t="shared" si="5"/>
-        <v>9.3533466033247307E-20</v>
+        <v>1.1308203825521422E-19</v>
       </c>
       <c r="F80" s="2"/>
     </row>
@@ -5657,11 +5501,11 @@
       </c>
       <c r="D81" s="4">
         <f t="shared" si="4"/>
-        <v>0.19835304895420175</v>
+        <v>0.19835304898442638</v>
       </c>
       <c r="E81" s="4">
         <f t="shared" si="5"/>
-        <v>2.0974800765950755E-21</v>
+        <v>2.4253781813995891E-22</v>
       </c>
       <c r="F81" s="2"/>
     </row>
@@ -5678,11 +5522,11 @@
       </c>
       <c r="D82" s="4">
         <f t="shared" si="4"/>
-        <v>0.2009837659144483</v>
+        <v>0.20098376594442738</v>
       </c>
       <c r="E82" s="4">
         <f t="shared" si="5"/>
-        <v>7.3190941615814575E-21</v>
+        <v>3.0883171863607423E-21</v>
       </c>
       <c r="F82" s="2"/>
     </row>
@@ -5699,11 +5543,11 @@
       </c>
       <c r="D83" s="4">
         <f t="shared" si="4"/>
-        <v>0.20361533125837725</v>
+        <v>0.20361533128808457</v>
       </c>
       <c r="E83" s="4">
         <f t="shared" si="5"/>
-        <v>6.6758796224062032E-20</v>
+        <v>8.2992711526898065E-20</v>
       </c>
       <c r="F83" s="2"/>
     </row>
@@ -5720,11 +5564,11 @@
       </c>
       <c r="D84" s="4">
         <f t="shared" si="4"/>
-        <v>0.20624775814263294</v>
+        <v>0.20624775817204183</v>
       </c>
       <c r="E84" s="4">
         <f t="shared" si="5"/>
-        <v>2.0344153645252805E-20</v>
+        <v>2.9598389628625113E-20</v>
       </c>
       <c r="F84" s="2"/>
     </row>
@@ -5741,11 +5585,11 @@
       </c>
       <c r="D85" s="4">
         <f t="shared" si="4"/>
-        <v>0.20888105981001437</v>
+        <v>0.20888105983909783</v>
       </c>
       <c r="E85" s="4">
         <f t="shared" si="5"/>
-        <v>3.6094542772608099E-20</v>
+        <v>2.5889511679443651E-20</v>
       </c>
       <c r="F85" s="2"/>
     </row>
@@ -5762,11 +5606,11 @@
       </c>
       <c r="D86" s="4">
         <f t="shared" si="4"/>
-        <v>0.21151524959079968</v>
+        <v>0.21151524961953025</v>
       </c>
       <c r="E86" s="4">
         <f t="shared" si="5"/>
-        <v>1.674448957691983E-19</v>
+        <v>1.4475722233086077E-19</v>
       </c>
       <c r="F86" s="2"/>
     </row>
@@ -5783,11 +5627,11 @@
       </c>
       <c r="D87" s="4">
         <f t="shared" si="4"/>
-        <v>0.21415034090407903</v>
+        <v>0.21415034093242882</v>
       </c>
       <c r="E87" s="4">
         <f t="shared" si="5"/>
-        <v>9.2008316444828242E-21</v>
+        <v>4.565863134209506E-21</v>
       </c>
       <c r="F87" s="2"/>
     </row>
@@ -5804,11 +5648,11 @@
       </c>
       <c r="D88" s="4">
         <f t="shared" si="4"/>
-        <v>0.2167863472590966</v>
+        <v>0.21678634728703736</v>
       </c>
       <c r="E88" s="4">
         <f t="shared" si="5"/>
-        <v>6.7131050868544246E-20</v>
+        <v>8.2390449536431207E-20</v>
       </c>
       <c r="F88" s="2"/>
     </row>
@@ -5825,11 +5669,11 @@
       </c>
       <c r="D89" s="4">
         <f t="shared" si="4"/>
-        <v>0.21942328225660157</v>
+        <v>0.21942328228410454</v>
       </c>
       <c r="E89" s="4">
         <f t="shared" si="5"/>
-        <v>6.584436743182233E-20</v>
+        <v>8.0715392742463874E-20</v>
       </c>
       <c r="F89" s="2"/>
     </row>
@@ -5846,11 +5690,11 @@
       </c>
       <c r="D90" s="4">
         <f t="shared" si="4"/>
-        <v>0.22206115959020797</v>
+        <v>0.22206115961724407</v>
       </c>
       <c r="E90" s="4">
         <f t="shared" si="5"/>
-        <v>1.6792951083471558E-19</v>
+        <v>1.4650210811664471E-19</v>
       </c>
       <c r="F90" s="2"/>
     </row>
@@ -5867,11 +5711,11 @@
       </c>
       <c r="D91" s="4">
         <f t="shared" si="4"/>
-        <v>0.22469999304776439</v>
+        <v>0.22469999307430405</v>
       </c>
       <c r="E91" s="4">
         <f t="shared" si="5"/>
-        <v>2.2814382458646057E-21</v>
+        <v>5.5210937638248507E-21</v>
       </c>
       <c r="F91" s="2"/>
     </row>
@@ -5888,11 +5732,11 @@
       </c>
       <c r="D92" s="4">
         <f t="shared" si="4"/>
-        <v>0.22733979651273256</v>
+        <v>0.22733979653874581</v>
       </c>
       <c r="E92" s="4">
         <f t="shared" si="5"/>
-        <v>2.3742956647711303E-19</v>
+        <v>2.1275543840171484E-19</v>
       </c>
       <c r="F92" s="2"/>
     </row>
@@ -5909,11 +5753,11 @@
       </c>
       <c r="D93" s="4">
         <f t="shared" si="4"/>
-        <v>0.22998058396557575</v>
+        <v>0.22998058399103213</v>
       </c>
       <c r="E93" s="4">
         <f t="shared" si="5"/>
-        <v>1.1850283846290466E-21</v>
+        <v>8.0422409615815513E-23</v>
       </c>
       <c r="F93" s="2"/>
     </row>
@@ -5930,11 +5774,11 @@
       </c>
       <c r="D94" s="4">
         <f t="shared" si="4"/>
-        <v>0.23262236948515685</v>
+        <v>0.23262236951002552</v>
       </c>
       <c r="E94" s="4">
         <f t="shared" si="5"/>
-        <v>2.3537717796215607E-19</v>
+        <v>2.6012603290368754E-19</v>
       </c>
       <c r="F94" s="2"/>
     </row>
@@ -5951,11 +5795,11 @@
       </c>
       <c r="D95" s="4">
         <f t="shared" si="4"/>
-        <v>0.23526516725014621</v>
+        <v>0.23526516727439589</v>
       </c>
       <c r="E95" s="4">
         <f t="shared" si="5"/>
-        <v>6.2573126028090084E-20</v>
+        <v>7.5293107135091922E-20</v>
       </c>
       <c r="F95" s="2"/>
     </row>
@@ -5972,11 +5816,11 @@
       </c>
       <c r="D96" s="4">
         <f t="shared" si="4"/>
-        <v>0.2379089915404396</v>
+        <v>0.23790899156403861</v>
       </c>
       <c r="E96" s="4">
         <f t="shared" si="5"/>
-        <v>2.1119577733129885E-19</v>
+        <v>1.9006234740349074E-19</v>
       </c>
       <c r="F96" s="2"/>
     </row>
@@ -5993,11 +5837,11 @@
       </c>
       <c r="D97" s="4">
         <f t="shared" si="4"/>
-        <v>0.24055385673858626</v>
+        <v>0.24055385676150237</v>
       </c>
       <c r="E97" s="4">
         <f t="shared" si="5"/>
-        <v>6.8337149607397776E-20</v>
+        <v>5.6881123477153548E-20</v>
       </c>
       <c r="F97" s="2"/>
     </row>
@@ -6014,11 +5858,11 @@
       </c>
       <c r="D98" s="4">
         <f t="shared" si="4"/>
-        <v>0.24319977733122691</v>
+        <v>0.24319977735342752</v>
       </c>
       <c r="E98" s="4">
         <f t="shared" si="5"/>
-        <v>1.0971126392957084E-19</v>
+        <v>1.2491100445776749E-19</v>
       </c>
       <c r="F98" s="2"/>
     </row>
@@ -6035,11 +5879,11 @@
       </c>
       <c r="D99" s="4">
         <f t="shared" si="4"/>
-        <v>0.24584676791054272</v>
+        <v>0.2458467679319947</v>
       </c>
       <c r="E99" s="4">
         <f t="shared" si="5"/>
-        <v>8.0026040362994951E-21</v>
+        <v>4.6247202621577404E-21</v>
       </c>
       <c r="F99" s="2"/>
     </row>
@@ -6056,11 +5900,11 @@
       </c>
       <c r="D100" s="4">
         <f t="shared" si="4"/>
-        <v>0.24849484317571438</v>
+        <v>0.24849484319638426</v>
       </c>
       <c r="E100" s="4">
         <f t="shared" si="5"/>
-        <v>3.0875545969144375E-20</v>
+        <v>3.8566781486563729E-20</v>
       </c>
       <c r="F100" s="2"/>
     </row>
@@ -6077,11 +5921,11 @@
       </c>
       <c r="D101" s="4">
         <f t="shared" si="4"/>
-        <v>0.25114401793439212</v>
+        <v>0.2511440179542459</v>
       </c>
       <c r="E101" s="4">
         <f t="shared" si="5"/>
-        <v>4.3043975915141887E-21</v>
+        <v>2.0934397452173507E-21</v>
       </c>
       <c r="F101" s="2"/>
     </row>
@@ -6098,11 +5942,11 @@
       </c>
       <c r="D102" s="4">
         <f t="shared" si="4"/>
-        <v>0.25379430710417639</v>
+        <v>0.25379430712317957</v>
       </c>
       <c r="E102" s="4">
         <f t="shared" si="5"/>
-        <v>1.0852720178618814E-20</v>
+        <v>1.5173208349802897E-20</v>
       </c>
       <c r="F102" s="2"/>
     </row>
@@ -6119,11 +5963,11 @@
       </c>
       <c r="D103" s="4">
         <f t="shared" si="4"/>
-        <v>0.25644572571410962</v>
+        <v>0.25644572573222735</v>
       </c>
       <c r="E103" s="4">
         <f t="shared" si="5"/>
-        <v>8.1733301906574228E-20</v>
+        <v>7.1702185338409187E-20</v>
       </c>
       <c r="F103" s="2"/>
     </row>
@@ -6140,11 +5984,11 @@
       </c>
       <c r="D104" s="4">
         <f t="shared" si="4"/>
-        <v>0.25909828890617931</v>
+        <v>0.25909828892337616</v>
       </c>
       <c r="E104" s="4">
         <f t="shared" si="5"/>
-        <v>8.8023187670669728E-21</v>
+        <v>5.8712095464022321E-21</v>
       </c>
       <c r="F104" s="2"/>
     </row>
@@ -6161,11 +6005,11 @@
       </c>
       <c r="D105" s="4">
         <f t="shared" si="4"/>
-        <v>0.26175201193683206</v>
+        <v>0.26175201195307218</v>
       </c>
       <c r="E105" s="4">
         <f t="shared" si="5"/>
-        <v>3.990185528766225E-21</v>
+        <v>2.2022179419923669E-21</v>
       </c>
       <c r="F105" s="2"/>
     </row>
@@ -6176,1125 +6020,1125 @@
     </row>
     <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113">
+      <c r="A113" s="10">
         <v>1</v>
       </c>
-      <c r="B113">
-        <v>2.548085700770919E-11</v>
-      </c>
-      <c r="C113">
-        <v>-2.548085700770919E-11</v>
+      <c r="B113" s="10">
+        <v>0</v>
+      </c>
+      <c r="C113" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114">
+      <c r="A114" s="10">
         <v>2</v>
       </c>
-      <c r="B114">
-        <v>2.6000016917499926E-3</v>
-      </c>
-      <c r="C114">
-        <v>3.0825000755033138E-10</v>
+      <c r="B114" s="10">
+        <v>2.6000016669730703E-3</v>
+      </c>
+      <c r="C114" s="10">
+        <v>3.3302692981768134E-10</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115">
+      <c r="A115" s="10">
         <v>3</v>
       </c>
-      <c r="B115">
-        <v>5.2000133582693646E-3</v>
-      </c>
-      <c r="C115">
-        <v>-3.582693646961288E-10</v>
+      <c r="B115" s="10">
+        <v>5.2000133341960682E-3</v>
+      </c>
+      <c r="C115" s="10">
+        <v>-3.3419606838835936E-10</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116">
+      <c r="A116" s="10">
         <v>4</v>
       </c>
-      <c r="B116">
-        <v>7.800045026289241E-3</v>
-      </c>
-      <c r="C116">
-        <v>-2.6289240749599596E-11</v>
+      <c r="B116" s="10">
+        <v>7.8000450029189535E-3</v>
+      </c>
+      <c r="C116" s="10">
+        <v>-2.9189532735340862E-12</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117">
+      <c r="A117" s="10">
         <v>5</v>
       </c>
-      <c r="B117">
-        <v>1.0400106699060063E-2</v>
-      </c>
-      <c r="C117">
-        <v>3.0093993790003548E-10</v>
+      <c r="B117" s="10">
+        <v>1.0400106676391855E-2</v>
+      </c>
+      <c r="C117" s="10">
+        <v>3.2360814548881844E-10</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118">
+      <c r="A118" s="10">
         <v>6</v>
       </c>
-      <c r="B118">
-        <v>1.3000208382832763E-2</v>
-      </c>
-      <c r="C118">
-        <v>-3.8283276375394859E-10</v>
+      <c r="B118" s="10">
+        <v>1.3000208360865399E-2</v>
+      </c>
+      <c r="C118" s="10">
+        <v>-3.6086540006197154E-10</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119">
+      <c r="A119" s="10">
         <v>7</v>
       </c>
-      <c r="B119">
-        <v>1.560036008785941E-2</v>
-      </c>
-      <c r="C119">
-        <v>-8.7859408984258813E-11</v>
+      <c r="B119" s="10">
+        <v>1.5600360066591344E-2</v>
+      </c>
+      <c r="C119" s="10">
+        <v>-6.6591343550470583E-11</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120">
+      <c r="A120" s="10">
         <v>8</v>
       </c>
-      <c r="B120">
-        <v>1.8200571829394246E-2</v>
-      </c>
-      <c r="C120">
-        <v>1.7060575521754551E-10</v>
+      <c r="B120" s="10">
+        <v>1.8200571808823621E-2</v>
+      </c>
+      <c r="C120" s="10">
+        <v>1.9117638028198769E-10</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121">
+      <c r="A121" s="10">
         <v>9</v>
       </c>
-      <c r="B121">
-        <v>2.0800853628695212E-2</v>
-      </c>
-      <c r="C121">
-        <v>3.7130478899860542E-10</v>
+      <c r="B121" s="10">
+        <v>2.0800853608819857E-2</v>
+      </c>
+      <c r="C121" s="10">
+        <v>3.9118014383277E-10</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122">
+      <c r="A122" s="10">
         <v>10</v>
       </c>
-      <c r="B122">
-        <v>2.3401215514026068E-2</v>
-      </c>
-      <c r="C122">
-        <v>-5.1402606823791608E-10</v>
+      <c r="B122" s="10">
+        <v>2.3401215494843513E-2</v>
+      </c>
+      <c r="C122" s="10">
+        <v>-4.9484351338779931E-10</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123">
+      <c r="A123" s="10">
         <v>11</v>
       </c>
-      <c r="B123">
-        <v>2.6001667521659267E-2</v>
-      </c>
-      <c r="C123">
-        <v>4.7834073160779589E-10</v>
+      <c r="B123" s="10">
+        <v>2.6001667503166733E-2</v>
+      </c>
+      <c r="C123" s="10">
+        <v>4.9683326550087337E-10</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124">
+      <c r="A124" s="10">
         <v>12</v>
       </c>
-      <c r="B124">
-        <v>2.8602219696879552E-2</v>
-      </c>
-      <c r="C124">
-        <v>3.0312044888014533E-10</v>
+      <c r="B124" s="10">
+        <v>2.8602219679073934E-2</v>
+      </c>
+      <c r="C124" s="10">
+        <v>3.2092606697120551E-10</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125">
+      <c r="A125" s="10">
         <v>13</v>
       </c>
-      <c r="B125">
-        <v>3.1202882094988518E-2</v>
-      </c>
-      <c r="C125">
-        <v>-9.4988517052030375E-11</v>
+      <c r="B125" s="10">
+        <v>3.1202882077866412E-2</v>
+      </c>
+      <c r="C125" s="10">
+        <v>-7.7866411235527622E-11</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126">
+      <c r="A126" s="10">
         <v>14</v>
       </c>
-      <c r="B126">
-        <v>3.3803664782310144E-2</v>
-      </c>
-      <c r="C126">
-        <v>2.1768985225545379E-10</v>
+      <c r="B126" s="10">
+        <v>3.3803664765867825E-2</v>
+      </c>
+      <c r="C126" s="10">
+        <v>2.3413217198342551E-10</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127">
+      <c r="A127" s="10">
         <v>15</v>
       </c>
-      <c r="B127">
-        <v>3.6404577837197395E-2</v>
-      </c>
-      <c r="C127">
-        <v>1.6280260473067187E-10</v>
+      <c r="B127" s="10">
+        <v>3.6404577821430847E-2</v>
+      </c>
+      <c r="C127" s="10">
+        <v>1.7856915252023597E-10</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128">
+      <c r="A128" s="10">
         <v>16</v>
       </c>
-      <c r="B128">
-        <v>3.9005631351040161E-2</v>
-      </c>
-      <c r="C128">
-        <v>-3.5104016221643164E-10</v>
+      <c r="B128" s="10">
+        <v>3.9005631335945028E-2</v>
+      </c>
+      <c r="C128" s="10">
+        <v>-3.3594502873990351E-10</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129">
+      <c r="A129" s="10">
         <v>17</v>
       </c>
-      <c r="B129">
-        <v>4.1606835429274298E-2</v>
-      </c>
-      <c r="C129">
-        <v>-4.2927429666494987E-10</v>
+      <c r="B129" s="10">
+        <v>4.1606835414845923E-2</v>
+      </c>
+      <c r="C129" s="10">
+        <v>-4.1484592150364819E-10</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130">
+      <c r="A130" s="10">
         <v>18</v>
       </c>
-      <c r="B130">
-        <v>4.4208200192392223E-2</v>
-      </c>
-      <c r="C130">
-        <v>-1.9239222021072422E-10</v>
+      <c r="B130" s="10">
+        <v>4.4208200178625659E-2</v>
+      </c>
+      <c r="C130" s="10">
+        <v>-1.7862565593329549E-10</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131">
+      <c r="A131" s="10">
         <v>19</v>
       </c>
-      <c r="B131">
-        <v>4.6809735776955026E-2</v>
-      </c>
-      <c r="C131">
-        <v>2.2304497138136981E-10</v>
+      <c r="B131" s="10">
+        <v>4.6809735763844972E-2</v>
+      </c>
+      <c r="C131" s="10">
+        <v>2.3615502608986816E-10</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132">
+      <c r="A132" s="10">
         <v>20</v>
       </c>
-      <c r="B132">
-        <v>4.9411452336606029E-2</v>
-      </c>
-      <c r="C132">
-        <v>-3.3660602777318971E-10</v>
+      <c r="B132" s="10">
+        <v>4.9411452324146905E-2</v>
+      </c>
+      <c r="C132" s="10">
+        <v>-3.2414690376292299E-10</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133">
+      <c r="A133" s="10">
         <v>21</v>
       </c>
-      <c r="B133">
-        <v>5.2013360043086251E-2</v>
-      </c>
-      <c r="C133">
-        <v>-4.3086249845725177E-11</v>
+      <c r="B133" s="10">
+        <v>5.2013360031272139E-2</v>
+      </c>
+      <c r="C133" s="10">
+        <v>-3.1272137657190058E-11</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134">
+      <c r="A134" s="10">
         <v>22</v>
       </c>
-      <c r="B134">
-        <v>5.4615469087251525E-2</v>
-      </c>
-      <c r="C134">
-        <v>-8.7251525449083545E-11</v>
+      <c r="B134" s="10">
+        <v>5.4615469076076201E-2</v>
+      </c>
+      <c r="C134" s="10">
+        <v>-7.607620089444822E-11</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135">
+      <c r="A135" s="10">
         <v>23</v>
       </c>
-      <c r="B135">
-        <v>5.7217789680091627E-2</v>
-      </c>
-      <c r="C135">
-        <v>3.1990837062734201E-10</v>
+      <c r="B135" s="10">
+        <v>5.721778966954856E-2</v>
+      </c>
+      <c r="C135" s="10">
+        <v>3.3045143704724111E-10</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136">
+      <c r="A136" s="10">
         <v>24</v>
       </c>
-      <c r="B136">
-        <v>5.982033205375141E-2</v>
-      </c>
-      <c r="C136">
-        <v>-5.3751413042757434E-11</v>
+      <c r="B136" s="10">
+        <v>5.9820332043833746E-2</v>
+      </c>
+      <c r="C136" s="10">
+        <v>-4.3833749130417488E-11</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137">
+      <c r="A137" s="10">
         <v>25</v>
       </c>
-      <c r="B137">
-        <v>6.2423106462553939E-2</v>
-      </c>
-      <c r="C137">
-        <v>-4.6255393959526714E-10</v>
+      <c r="B137" s="10">
+        <v>6.2423106453254495E-2</v>
+      </c>
+      <c r="C137" s="10">
+        <v>-4.5325449643529581E-10</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138">
+      <c r="A138" s="10">
         <v>26</v>
       </c>
-      <c r="B138">
-        <v>6.5026123184026036E-2</v>
-      </c>
-      <c r="C138">
-        <v>-1.8402603052525279E-10</v>
+      <c r="B138" s="10">
+        <v>6.5026123175337319E-2</v>
+      </c>
+      <c r="C138" s="10">
+        <v>-1.7533731411223386E-10</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139">
+      <c r="A139" s="10">
         <v>27</v>
       </c>
-      <c r="B139">
-        <v>6.762939251992596E-2</v>
-      </c>
-      <c r="C139">
-        <v>4.8007403607996935E-10</v>
+      <c r="B139" s="10">
+        <v>6.7629392511840164E-2</v>
+      </c>
+      <c r="C139" s="10">
+        <v>4.8815983200167778E-10</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140">
+      <c r="A140" s="10">
         <v>28</v>
       </c>
-      <c r="B140">
-        <v>7.0232924797273638E-2</v>
-      </c>
-      <c r="C140">
-        <v>2.0272636347407058E-10</v>
+      <c r="B140" s="10">
+        <v>7.023292478978263E-2</v>
+      </c>
+      <c r="C140" s="10">
+        <v>2.102173712881239E-10</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141">
+      <c r="A141" s="10">
         <v>29</v>
       </c>
-      <c r="B141">
-        <v>7.2836730369383332E-2</v>
-      </c>
-      <c r="C141">
-        <v>-3.6938332947933361E-10</v>
+      <c r="B141" s="10">
+        <v>7.2836730362478688E-2</v>
+      </c>
+      <c r="C141" s="10">
+        <v>-3.6247868595573607E-10</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142">
+      <c r="A142" s="10">
         <v>30</v>
       </c>
-      <c r="B142">
-        <v>7.5440819616899052E-2</v>
-      </c>
-      <c r="C142">
-        <v>3.8310095373805808E-10</v>
+      <c r="B142" s="10">
+        <v>7.5440819610571988E-2</v>
+      </c>
+      <c r="C142" s="10">
+        <v>3.8942801761088219E-10</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143">
+      <c r="A143" s="10">
         <v>31</v>
       </c>
-      <c r="B143">
-        <v>7.804520294883259E-2</v>
-      </c>
-      <c r="C143">
-        <v>5.1167403647411902E-11</v>
+      <c r="B143" s="10">
+        <v>7.8045202943074016E-2</v>
+      </c>
+      <c r="C143" s="10">
+        <v>5.6925977820476703E-11</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144">
+      <c r="A144" s="10">
         <v>32</v>
       </c>
-      <c r="B144">
-        <v>8.0649890803604365E-2</v>
-      </c>
-      <c r="C144">
-        <v>1.9639563586526521E-10</v>
+      <c r="B144" s="10">
+        <v>8.0649890798404858E-2</v>
+      </c>
+      <c r="C144" s="10">
+        <v>2.015951433564922E-10</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145">
+      <c r="A145" s="10">
         <v>33</v>
       </c>
-      <c r="B145">
-        <v>8.3254893650087383E-2</v>
-      </c>
-      <c r="C145">
-        <v>3.4991261277372843E-10</v>
+      <c r="B145" s="10">
+        <v>8.3254893645437214E-2</v>
+      </c>
+      <c r="C145" s="10">
+        <v>3.5456278191237089E-10</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146">
+      <c r="A146" s="10">
         <v>34</v>
       </c>
-      <c r="B146">
-        <v>8.5860221988654062E-2</v>
-      </c>
-      <c r="C146">
-        <v>1.1345938077944595E-11</v>
+      <c r="B146" s="10">
+        <v>8.586022198454317E-2</v>
+      </c>
+      <c r="C146" s="10">
+        <v>1.5456830260163201E-11</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147">
+      <c r="A147" s="10">
         <v>35</v>
       </c>
-      <c r="B147">
-        <v>8.8465886352226311E-2</v>
-      </c>
-      <c r="C147">
-        <v>-3.5222631755704725E-10</v>
+      <c r="B147" s="10">
+        <v>8.8465886348644315E-2</v>
+      </c>
+      <c r="C147" s="10">
+        <v>-3.4864432174597226E-10</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148">
+      <c r="A148" s="10">
         <v>36</v>
       </c>
-      <c r="B148">
-        <v>9.1071897307328814E-2</v>
-      </c>
-      <c r="C148">
-        <v>-3.0732881517447908E-10</v>
+      <c r="B148" s="10">
+        <v>9.1071897304264987E-2</v>
+      </c>
+      <c r="C148" s="10">
+        <v>-3.0426498820457226E-10</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149">
+      <c r="A149" s="10">
         <v>37</v>
       </c>
-      <c r="B149">
-        <v>9.3678265455145709E-2</v>
-      </c>
-      <c r="C149">
-        <v>-4.5514571278548743E-10</v>
+      <c r="B149" s="10">
+        <v>9.3678265452589005E-2</v>
+      </c>
+      <c r="C149" s="10">
+        <v>-4.5258900793765378E-10</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150">
+      <c r="A150" s="10">
         <v>38</v>
       </c>
-      <c r="B150">
-        <v>9.6285001432580689E-2</v>
-      </c>
-      <c r="C150">
-        <v>-4.3258069348794947E-10</v>
+      <c r="B150" s="10">
+        <v>9.628500143051974E-2</v>
+      </c>
+      <c r="C150" s="10">
+        <v>-4.3051974485397437E-10</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151">
+      <c r="A151" s="10">
         <v>39</v>
       </c>
-      <c r="B151">
-        <v>9.88921159133207E-2</v>
-      </c>
-      <c r="C151">
-        <v>8.6679302624403931E-11</v>
+      <c r="B151" s="10">
+        <v>9.8892115911743836E-2</v>
+      </c>
+      <c r="C151" s="10">
+        <v>8.8256166264066849E-11</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152">
+      <c r="A152" s="10">
         <v>40</v>
       </c>
-      <c r="B152">
-        <v>0.10149961960890337</v>
-      </c>
-      <c r="C152">
-        <v>3.9109662730574257E-10</v>
+      <c r="B152" s="10">
+        <v>0.10149961960779855</v>
+      </c>
+      <c r="C152" s="10">
+        <v>3.9220145187091049E-10</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153">
+      <c r="A153" s="10">
         <v>41</v>
       </c>
-      <c r="B153">
-        <v>0.10410752326978813</v>
-      </c>
-      <c r="C153">
-        <v>-2.6978813627565046E-10</v>
+      <c r="B153" s="10">
+        <v>0.10410752326914297</v>
+      </c>
+      <c r="C153" s="10">
+        <v>-2.6914297179825297E-10</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154">
+      <c r="A154" s="10">
         <v>42</v>
       </c>
-      <c r="B154">
-        <v>0.10671583768643123</v>
-      </c>
-      <c r="C154">
-        <v>3.1356876817323354E-10</v>
+      <c r="B154" s="10">
+        <v>0.10671583768623302</v>
+      </c>
+      <c r="C154" s="10">
+        <v>3.1376697073870474E-10</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155">
+      <c r="A155" s="10">
         <v>43</v>
       </c>
-      <c r="B155">
-        <v>0.1093245736903649</v>
-      </c>
-      <c r="C155">
-        <v>3.0963509534132072E-10</v>
+      <c r="B155" s="10">
+        <v>0.10932457369060064</v>
+      </c>
+      <c r="C155" s="10">
+        <v>3.0939935335982938E-10</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156">
+      <c r="A156" s="10">
         <v>44</v>
       </c>
-      <c r="B156">
-        <v>0.1119337421552804</v>
-      </c>
-      <c r="C156">
-        <v>-1.5528039964962659E-10</v>
+      <c r="B156" s="10">
+        <v>0.11193374215593672</v>
+      </c>
+      <c r="C156" s="10">
+        <v>-1.5593672186842156E-10</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157">
+      <c r="A157" s="10">
         <v>45</v>
       </c>
-      <c r="B157">
-        <v>0.11454335399811551</v>
-      </c>
-      <c r="C157">
-        <v>1.8844925619987407E-12</v>
+      <c r="B157" s="10">
+        <v>0.11454335399917867</v>
+      </c>
+      <c r="C157" s="10">
+        <v>8.2132911582988299E-13</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158">
+      <c r="A158" s="10">
         <v>46</v>
       </c>
-      <c r="B158">
-        <v>0.11715342018014609</v>
-      </c>
-      <c r="C158">
-        <v>-1.8014609248773183E-10</v>
+      <c r="B158" s="10">
+        <v>0.11715342018160207</v>
+      </c>
+      <c r="C158" s="10">
+        <v>-1.8160208059558869E-10</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159">
+      <c r="A159" s="10">
         <v>47</v>
       </c>
-      <c r="B159">
-        <v>0.11976395170808235</v>
-      </c>
-      <c r="C159">
-        <v>2.9191765671399139E-10</v>
+      <c r="B159" s="10">
+        <v>0.11976395170991679</v>
+      </c>
+      <c r="C159" s="10">
+        <v>2.9008322133261544E-10</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160">
+      <c r="A160" s="10">
         <v>48</v>
       </c>
-      <c r="B160">
-        <v>0.12237495963516946</v>
-      </c>
-      <c r="C160">
-        <v>3.6483054077773858E-10</v>
+      <c r="B160" s="10">
+        <v>0.12237495963736759</v>
+      </c>
+      <c r="C160" s="10">
+        <v>3.6263241021128323E-10</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161">
+      <c r="A161" s="10">
         <v>49</v>
       </c>
-      <c r="B161">
-        <v>0.12498645506229292</v>
-      </c>
-      <c r="C161">
-        <v>-6.229292082160498E-11</v>
+      <c r="B161" s="10">
+        <v>0.1249864550648397</v>
+      </c>
+      <c r="C161" s="10">
+        <v>-6.483970305115605E-11</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162">
+      <c r="A162" s="10">
         <v>50</v>
       </c>
-      <c r="B162">
-        <v>0.12759844913908866</v>
-      </c>
-      <c r="C162">
-        <v>-1.3908865725831276E-10</v>
+      <c r="B162" s="10">
+        <v>0.12759844914196866</v>
+      </c>
+      <c r="C162" s="10">
+        <v>-1.4196865905091727E-10</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163">
+      <c r="A163" s="10">
         <v>51</v>
       </c>
-      <c r="B163">
-        <v>0.13021095306505792</v>
-      </c>
-      <c r="C163">
-        <v>-6.5057931264433932E-11</v>
+      <c r="B163" s="10">
+        <v>0.13021095306825536</v>
+      </c>
+      <c r="C163" s="10">
+        <v>-6.8255373575354383E-11</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164">
+      <c r="A164" s="10">
         <v>52</v>
       </c>
-      <c r="B164">
-        <v>0.13282397809068733</v>
-      </c>
-      <c r="C164">
-        <v>-9.0687318765603209E-11</v>
+      <c r="B164" s="10">
+        <v>0.13282397809418614</v>
+      </c>
+      <c r="C164" s="10">
+        <v>-9.4186131116558158E-11</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165">
+      <c r="A165" s="10">
         <v>53</v>
       </c>
-      <c r="B165">
-        <v>0.13543753551857396</v>
-      </c>
-      <c r="C165">
-        <v>4.8142603792378225E-10</v>
+      <c r="B165" s="10">
+        <v>0.13543753552235765</v>
+      </c>
+      <c r="C165" s="10">
+        <v>4.7764234234470848E-10</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166">
+      <c r="A166" s="10">
         <v>54</v>
       </c>
-      <c r="B166">
-        <v>0.13805163670455542</v>
-      </c>
-      <c r="C166">
-        <v>2.9544458546304497E-10</v>
+      <c r="B166" s="10">
+        <v>0.13805163670860721</v>
+      </c>
+      <c r="C166" s="10">
+        <v>2.9139279877909985E-10</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167">
+      <c r="A167" s="10">
         <v>55</v>
       </c>
-      <c r="B167">
-        <v>0.14066629305884576</v>
-      </c>
-      <c r="C167">
-        <v>-5.8845761596870716E-11</v>
+      <c r="B167" s="10">
+        <v>0.14066629306314846</v>
+      </c>
+      <c r="C167" s="10">
+        <v>-6.3148458684381126E-11</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168">
+      <c r="A168" s="10">
         <v>56</v>
       </c>
-      <c r="B168">
-        <v>0.14328151604717615</v>
-      </c>
-      <c r="C168">
-        <v>-4.7176151873884464E-11</v>
+      <c r="B168" s="10">
+        <v>0.14328151605171227</v>
+      </c>
+      <c r="C168" s="10">
+        <v>-5.1712273352322313E-11</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169">
+      <c r="A169" s="10">
         <v>57</v>
       </c>
-      <c r="B169">
-        <v>0.14589731719194177</v>
-      </c>
-      <c r="C169">
-        <v>-1.9194176803516427E-10</v>
+      <c r="B169" s="10">
+        <v>0.14589731719669341</v>
+      </c>
+      <c r="C169" s="10">
+        <v>-1.9669341155825748E-10</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170">
+      <c r="A170" s="10">
         <v>58</v>
       </c>
-      <c r="B170">
-        <v>0.14851370807335385</v>
-      </c>
-      <c r="C170">
-        <v>-7.335385077134049E-11</v>
+      <c r="B170" s="10">
+        <v>0.14851370807830278</v>
+      </c>
+      <c r="C170" s="10">
+        <v>-7.8302780925909587E-11</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171">
+      <c r="A171" s="10">
         <v>59</v>
       </c>
-      <c r="B171">
-        <v>0.15113070033059778</v>
-      </c>
-      <c r="C171">
-        <v>-3.3059777138078061E-10</v>
+      <c r="B171" s="10">
+        <v>0.15113070033572545</v>
+      </c>
+      <c r="C171" s="10">
+        <v>-3.3572544744231436E-10</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172">
+      <c r="A172" s="10">
         <v>60</v>
       </c>
-      <c r="B172">
-        <v>0.15374830566299713</v>
-      </c>
-      <c r="C172">
-        <v>3.3700287005444807E-10</v>
+      <c r="B172" s="10">
+        <v>0.1537483056682846</v>
+      </c>
+      <c r="C172" s="10">
+        <v>3.3171540514409514E-10</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173">
+      <c r="A173" s="10">
         <v>61</v>
       </c>
-      <c r="B173">
-        <v>0.15636653583118335</v>
-      </c>
-      <c r="C173">
-        <v>1.6881665509949073E-10</v>
+      <c r="B173" s="10">
+        <v>0.15636653583661125</v>
+      </c>
+      <c r="C173" s="10">
+        <v>1.6338874697652273E-10</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174">
+      <c r="A174" s="10">
         <v>62</v>
       </c>
-      <c r="B174">
-        <v>0.15898540265827205</v>
-      </c>
-      <c r="C174">
-        <v>3.4172795149167712E-10</v>
+      <c r="B174" s="10">
+        <v>0.15898540266382075</v>
+      </c>
+      <c r="C174" s="10">
+        <v>3.3617925110362989E-10</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175">
+      <c r="A175" s="10">
         <v>63</v>
       </c>
-      <c r="B175">
-        <v>0.16160491803104532</v>
-      </c>
-      <c r="C175">
-        <v>-3.1045332971046946E-11</v>
+      <c r="B175" s="10">
+        <v>0.16160491803669474</v>
+      </c>
+      <c r="C175" s="10">
+        <v>-3.6694758343003286E-11</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176">
+      <c r="A176" s="10">
         <v>64</v>
       </c>
-      <c r="B176">
-        <v>0.16422509390114029</v>
-      </c>
-      <c r="C176">
-        <v>9.8859698205444602E-11</v>
+      <c r="B176" s="10">
+        <v>0.16422509390687001</v>
+      </c>
+      <c r="C176" s="10">
+        <v>9.3129975953232247E-11</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177">
+      <c r="A177" s="10">
         <v>65</v>
       </c>
-      <c r="B177">
-        <v>0.16684594228624439</v>
-      </c>
-      <c r="C177">
-        <v>-2.8624438930258123E-10</v>
+      <c r="B177" s="10">
+        <v>0.16684594229203359</v>
+      </c>
+      <c r="C177" s="10">
+        <v>-2.9203359175333787E-10</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178">
+      <c r="A178" s="10">
         <v>66</v>
       </c>
-      <c r="B178">
-        <v>0.16946747527129707</v>
-      </c>
-      <c r="C178">
-        <v>-2.7129706814399412E-10</v>
+      <c r="B178" s="10">
+        <v>0.16946747527712466</v>
+      </c>
+      <c r="C178" s="10">
+        <v>-2.7712465655582719E-10</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179">
+      <c r="A179" s="10">
         <v>67</v>
       </c>
-      <c r="B179">
-        <v>0.17208970500969845</v>
-      </c>
-      <c r="C179">
-        <v>-9.6984364983399018E-12</v>
+      <c r="B179" s="10">
+        <v>0.17208970501554285</v>
+      </c>
+      <c r="C179" s="10">
+        <v>-1.5542844788996035E-11</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180">
+      <c r="A180" s="10">
         <v>68</v>
       </c>
-      <c r="B180">
-        <v>0.17471264372452447</v>
-      </c>
-      <c r="C180">
-        <v>2.7547553127504898E-10</v>
+      <c r="B180" s="10">
+        <v>0.17471264373036377</v>
+      </c>
+      <c r="C180" s="10">
+        <v>2.6963623001030612E-10</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181">
+      <c r="A181" s="10">
         <v>69</v>
       </c>
-      <c r="B181">
-        <v>0.17733630370974934</v>
-      </c>
-      <c r="C181">
-        <v>2.9025065684251672E-10</v>
+      <c r="B181" s="10">
+        <v>0.17733630371556125</v>
+      </c>
+      <c r="C181" s="10">
+        <v>2.8443875033090649E-10</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182">
+      <c r="A182" s="10">
         <v>70</v>
       </c>
-      <c r="B182">
-        <v>0.17996069733147491</v>
-      </c>
-      <c r="C182">
-        <v>-3.3147490308138572E-10</v>
+      <c r="B182" s="10">
+        <v>0.17996069733723671</v>
+      </c>
+      <c r="C182" s="10">
+        <v>-3.3723671077900974E-10</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183">
+      <c r="A183" s="10">
         <v>71</v>
       </c>
-      <c r="B183">
-        <v>0.18258583702916728</v>
-      </c>
-      <c r="C183">
-        <v>-2.9167279702591031E-11</v>
+      <c r="B183" s="10">
+        <v>0.18258583703485598</v>
+      </c>
+      <c r="C183" s="10">
+        <v>-3.4855979214043487E-11</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184">
+      <c r="A184" s="10">
         <v>72</v>
       </c>
-      <c r="B184">
-        <v>0.1852117353169008</v>
-      </c>
-      <c r="C184">
-        <v>-3.1690081114810198E-10</v>
+      <c r="B184" s="10">
+        <v>0.18521173532249291</v>
+      </c>
+      <c r="C184" s="10">
+        <v>-3.2249292125641205E-10</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185">
+      <c r="A185" s="10">
         <v>73</v>
       </c>
-      <c r="B185">
-        <v>0.18783840478460942</v>
-      </c>
-      <c r="C185">
-        <v>2.1539059424924289E-10</v>
+      <c r="B185" s="10">
+        <v>0.1878384047900811</v>
+      </c>
+      <c r="C185" s="10">
+        <v>2.0991891558352904E-10</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186">
+      <c r="A186" s="10">
         <v>74</v>
       </c>
-      <c r="B186">
-        <v>0.19046585809934574</v>
-      </c>
-      <c r="C186">
-        <v>-9.9345753845625495E-11</v>
+      <c r="B186" s="10">
+        <v>0.19046585810467279</v>
+      </c>
+      <c r="C186" s="10">
+        <v>-1.0467279820680631E-10</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187">
+      <c r="A187" s="10">
         <v>75</v>
       </c>
-      <c r="B187">
-        <v>0.19309410800654775</v>
-      </c>
-      <c r="C187">
-        <v>-6.5477623323317857E-12</v>
+      <c r="B187" s="10">
+        <v>0.19309410801170548</v>
+      </c>
+      <c r="C187" s="10">
+        <v>-1.170549768225726E-11</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188">
+      <c r="A188" s="10">
         <v>76</v>
       </c>
-      <c r="B188">
-        <v>0.19572316733131329</v>
-      </c>
-      <c r="C188">
-        <v>-3.3131328236457591E-10</v>
+      <c r="B188" s="10">
+        <v>0.19572316733627673</v>
+      </c>
+      <c r="C188" s="10">
+        <v>-3.3627672868519198E-10</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189">
+      <c r="A189" s="10">
         <v>77</v>
       </c>
-      <c r="B189">
-        <v>0.19835304897968262</v>
-      </c>
-      <c r="C189">
-        <v>2.0317386661972137E-11</v>
+      <c r="B189" s="10">
+        <v>0.19835304898442638</v>
+      </c>
+      <c r="C189" s="10">
+        <v>1.5573625722353768E-11</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190">
+      <c r="A190" s="10">
         <v>78</v>
       </c>
-      <c r="B190">
-        <v>0.20098376593992917</v>
-      </c>
-      <c r="C190">
-        <v>6.0070837193393345E-11</v>
+      <c r="B190" s="10">
+        <v>0.20098376594442738</v>
+      </c>
+      <c r="C190" s="10">
+        <v>5.5572629831246445E-11</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191">
+      <c r="A191" s="10">
         <v>79</v>
       </c>
-      <c r="B191">
-        <v>0.20361533128385811</v>
-      </c>
-      <c r="C191">
-        <v>-2.8385810368902753E-10</v>
+      <c r="B191" s="10">
+        <v>0.20361533128808457</v>
+      </c>
+      <c r="C191" s="10">
+        <v>-2.8808455621032181E-10</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192">
+      <c r="A192" s="10">
         <v>80</v>
       </c>
-      <c r="B192">
-        <v>0.2062477581681138</v>
-      </c>
-      <c r="C192">
-        <v>-1.6811380065817616E-10</v>
+      <c r="B192" s="10">
+        <v>0.20624775817204183</v>
+      </c>
+      <c r="C192" s="10">
+        <v>-1.720418252304512E-10</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193">
+      <c r="A193" s="10">
         <v>81</v>
       </c>
-      <c r="B193">
-        <v>0.20888105983549524</v>
-      </c>
-      <c r="C193">
-        <v>1.6450477091645155E-10</v>
+      <c r="B193" s="10">
+        <v>0.20888105983909783</v>
+      </c>
+      <c r="C193" s="10">
+        <v>1.6090218046826976E-10</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194">
+      <c r="A194" s="10">
         <v>82</v>
       </c>
-      <c r="B194">
-        <v>0.21151524961628054</v>
-      </c>
-      <c r="C194">
-        <v>3.8371944510728895E-10</v>
+      <c r="B194" s="10">
+        <v>0.21151524961953025</v>
+      </c>
+      <c r="C194" s="10">
+        <v>3.8046973904748427E-10</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195">
+      <c r="A195" s="10">
         <v>83</v>
       </c>
-      <c r="B195">
-        <v>0.2141503409295599</v>
-      </c>
-      <c r="C195">
-        <v>7.0440098198787382E-11</v>
+      <c r="B195" s="10">
+        <v>0.21415034093242882</v>
+      </c>
+      <c r="C195" s="10">
+        <v>6.7571170880853515E-11</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196">
+      <c r="A196" s="10">
         <v>84</v>
       </c>
-      <c r="B196">
-        <v>0.21678634728457746</v>
-      </c>
-      <c r="C196">
-        <v>-2.845774726978334E-10</v>
+      <c r="B196" s="10">
+        <v>0.21678634728703736</v>
+      </c>
+      <c r="C196" s="10">
+        <v>-2.8703736609791974E-10</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197">
+      <c r="A197" s="10">
         <v>85</v>
       </c>
-      <c r="B197">
-        <v>0.21942328228208244</v>
-      </c>
-      <c r="C197">
-        <v>-2.8208244073901767E-10</v>
+      <c r="B197" s="10">
+        <v>0.21942328228410454</v>
+      </c>
+      <c r="C197" s="10">
+        <v>-2.841045454449187E-10</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198">
+      <c r="A198" s="10">
         <v>86</v>
       </c>
-      <c r="B198">
-        <v>0.22206115961568884</v>
-      </c>
-      <c r="C198">
-        <v>3.8431116622383854E-10</v>
+      <c r="B198" s="10">
+        <v>0.22206115961724407</v>
+      </c>
+      <c r="C198" s="10">
+        <v>3.8275593805536801E-10</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199">
+      <c r="A199" s="10">
         <v>87</v>
       </c>
-      <c r="B199">
-        <v>0.22469999307324526</v>
-      </c>
-      <c r="C199">
-        <v>-7.3245270959532149E-11</v>
+      <c r="B199" s="10">
+        <v>0.22469999307430405</v>
+      </c>
+      <c r="C199" s="10">
+        <v>-7.4304062902541546E-11</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200">
+      <c r="A200" s="10">
         <v>88</v>
       </c>
-      <c r="B200">
-        <v>0.22733979653821343</v>
-      </c>
-      <c r="C200">
-        <v>4.6178658119622185E-10</v>
+      <c r="B200" s="10">
+        <v>0.22733979653874581</v>
+      </c>
+      <c r="C200" s="10">
+        <v>4.6125420150033847E-10</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201">
+      <c r="A201" s="10">
         <v>89</v>
       </c>
-      <c r="B201">
-        <v>0.22998058399105661</v>
-      </c>
-      <c r="C201">
-        <v>8.9433738192923329E-12</v>
+      <c r="B201" s="10">
+        <v>0.22998058399103213</v>
+      </c>
+      <c r="C201" s="10">
+        <v>8.9678542369853176E-12</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202">
+      <c r="A202" s="10">
         <v>90</v>
       </c>
-      <c r="B202">
-        <v>0.23262236951063769</v>
-      </c>
-      <c r="C202">
-        <v>-5.1063769879178267E-10</v>
+      <c r="B202" s="10">
+        <v>0.23262236951002552</v>
+      </c>
+      <c r="C202" s="10">
+        <v>-5.1002552181600436E-10</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203">
+      <c r="A203" s="10">
         <v>91</v>
       </c>
-      <c r="B203">
-        <v>0.23526516727562707</v>
-      </c>
-      <c r="C203">
-        <v>-2.7562707671791031E-10</v>
+      <c r="B203" s="10">
+        <v>0.23526516727439589</v>
+      </c>
+      <c r="C203" s="10">
+        <v>-2.7439589489475225E-10</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204">
+      <c r="A204" s="10">
         <v>92</v>
       </c>
-      <c r="B204">
-        <v>0.23790899156592046</v>
-      </c>
-      <c r="C204">
-        <v>4.3407955008234467E-10</v>
+      <c r="B204" s="10">
+        <v>0.23790899156403861</v>
+      </c>
+      <c r="C204" s="10">
+        <v>4.3596140586465992E-10</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205">
+      <c r="A205" s="10">
         <v>93</v>
       </c>
-      <c r="B205">
-        <v>0.24055385676406713</v>
-      </c>
-      <c r="C205">
-        <v>2.3593288434042847E-10</v>
+      <c r="B205" s="10">
+        <v>0.24055385676150237</v>
+      </c>
+      <c r="C205" s="10">
+        <v>2.3849763830519066E-10</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206">
+      <c r="A206" s="10">
         <v>94</v>
       </c>
-      <c r="B206">
-        <v>0.24319977735670778</v>
-      </c>
-      <c r="C206">
-        <v>-3.5670777442931012E-10</v>
+      <c r="B206" s="10">
+        <v>0.24319977735342752</v>
+      </c>
+      <c r="C206" s="10">
+        <v>-3.5342750948075263E-10</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207">
+      <c r="A207" s="10">
         <v>95</v>
       </c>
-      <c r="B207">
-        <v>0.24584676793602359</v>
-      </c>
-      <c r="C207">
-        <v>6.3976407504995336E-11</v>
+      <c r="B207" s="10">
+        <v>0.2458467679319947</v>
+      </c>
+      <c r="C207" s="10">
+        <v>6.8005295839057567E-11</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208">
+      <c r="A208" s="10">
         <v>96</v>
       </c>
-      <c r="B208">
-        <v>0.24849484320119525</v>
-      </c>
-      <c r="C208">
-        <v>-2.0119525490081003E-10</v>
+      <c r="B208" s="10">
+        <v>0.24849484319638426</v>
+      </c>
+      <c r="C208" s="10">
+        <v>-1.9638426995705061E-10</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209">
+      <c r="A209" s="10">
         <v>97</v>
       </c>
-      <c r="B209">
-        <v>0.25114401795987296</v>
-      </c>
-      <c r="C209">
-        <v>4.0127068334783189E-11</v>
+      <c r="B209" s="10">
+        <v>0.2511440179542459</v>
+      </c>
+      <c r="C209" s="10">
+        <v>4.5754122712793333E-11</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210">
+      <c r="A210" s="10">
         <v>98</v>
       </c>
-      <c r="B210">
-        <v>0.25379430712965723</v>
-      </c>
-      <c r="C210">
-        <v>-1.2965722939739521E-10</v>
+      <c r="B210" s="10">
+        <v>0.25379430712317957</v>
+      </c>
+      <c r="C210" s="10">
+        <v>-1.2317957764906851E-10</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211">
+      <c r="A211" s="10">
         <v>99</v>
       </c>
-      <c r="B211">
-        <v>0.25644572573959046</v>
-      </c>
-      <c r="C211">
-        <v>2.6040952727512945E-10</v>
+      <c r="B211" s="10">
+        <v>0.25644572573222735</v>
+      </c>
+      <c r="C211" s="10">
+        <v>2.6777263739674595E-10</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212">
+      <c r="A212" s="10">
         <v>100</v>
       </c>
-      <c r="B212">
-        <v>0.2590982889316602</v>
-      </c>
-      <c r="C212">
-        <v>6.8339778280801511E-11</v>
+      <c r="B212" s="10">
+        <v>0.25909828892337616</v>
+      </c>
+      <c r="C212" s="10">
+        <v>7.6623818401344579E-11</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="6">
+      <c r="A213" s="11">
         <v>101</v>
       </c>
-      <c r="B213" s="6">
-        <v>0.2617520119623129</v>
-      </c>
-      <c r="C213" s="6">
-        <v>3.7687075682413251E-11</v>
+      <c r="B213" s="11">
+        <v>0.26175201195307218</v>
+      </c>
+      <c r="C213" s="11">
+        <v>4.6927794983275817E-11</v>
       </c>
     </row>
   </sheetData>
